--- a/templates/electronicJournal2.xlsx
+++ b/templates/electronicJournal2.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -341,9 +348,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,55 +363,38 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -416,6 +403,50 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -426,35 +457,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN996"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16:AH16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30:AH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -697,47 +704,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
       <c r="W1" s="4"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="32"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="30"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -745,41 +752,41 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
       <c r="W2" s="4"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="34"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="32"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -790,44 +797,44 @@
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="48" t="s">
+      <c r="Z3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="31" t="s">
+      <c r="AA3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="50" t="s">
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="36" t="s">
         <v>6</v>
       </c>
       <c r="AJ3" s="1"/>
@@ -840,40 +847,40 @@
       <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="49"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="34"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -881,40 +888,40 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="53"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="45"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -924,39 +931,39 @@
     </row>
     <row r="6" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="53"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="45"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -966,39 +973,39 @@
     </row>
     <row r="7" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="53"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="45"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -1008,39 +1015,39 @@
     </row>
     <row r="8" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="53"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="45"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -1050,39 +1057,39 @@
     </row>
     <row r="9" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="53"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="45"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -1092,39 +1099,39 @@
     </row>
     <row r="10" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="53"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="45"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -1134,39 +1141,39 @@
     </row>
     <row r="11" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="53"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="45"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -1176,39 +1183,39 @@
     </row>
     <row r="12" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="53"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="45"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -1218,39 +1225,39 @@
     </row>
     <row r="13" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="53"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="45"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -1260,39 +1267,39 @@
     </row>
     <row r="14" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="53"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="45"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -1302,39 +1309,39 @@
     </row>
     <row r="15" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="53"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="45"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -1344,39 +1351,39 @@
     </row>
     <row r="16" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
-      <c r="AH16" s="53"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="45"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -1386,39 +1393,39 @@
     </row>
     <row r="17" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="53"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="45"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -1428,39 +1435,39 @@
     </row>
     <row r="18" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
-      <c r="AH18" s="53"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="45"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -1470,39 +1477,39 @@
     </row>
     <row r="19" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
-      <c r="AH19" s="53"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="45"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -1512,39 +1519,39 @@
     </row>
     <row r="20" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="53"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="45"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -1554,39 +1561,39 @@
     </row>
     <row r="21" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="53"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="45"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -1596,39 +1603,39 @@
     </row>
     <row r="22" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
-      <c r="AH22" s="53"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="45"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -1638,39 +1645,39 @@
     </row>
     <row r="23" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
-      <c r="AH23" s="53"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="45"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -1680,39 +1687,39 @@
     </row>
     <row r="24" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="53"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="45"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -1722,39 +1729,39 @@
     </row>
     <row r="25" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="53"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="45"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -1764,39 +1771,39 @@
     </row>
     <row r="26" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="53"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="45"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -1806,38 +1813,38 @@
     </row>
     <row r="27" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52"/>
-      <c r="AH27" s="53"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="45"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -1847,39 +1854,39 @@
     </row>
     <row r="28" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
-      <c r="AH28" s="53"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="45"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -1889,39 +1896,39 @@
     </row>
     <row r="29" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
-      <c r="AH29" s="53"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="45"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -1931,39 +1938,39 @@
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
-      <c r="AH30" s="53"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="45"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -1972,40 +1979,40 @@
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="53"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="45"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -2015,39 +2022,39 @@
     </row>
     <row r="32" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
-      <c r="AH32" s="53"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="45"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -2057,39 +2064,39 @@
     </row>
     <row r="33" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="52"/>
-      <c r="AH33" s="53"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="45"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -2099,39 +2106,39 @@
     </row>
     <row r="34" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="52"/>
-      <c r="AH34" s="53"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="45"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -2141,39 +2148,39 @@
     </row>
     <row r="35" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
-      <c r="AH35" s="53"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="45"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -2183,39 +2190,39 @@
     </row>
     <row r="36" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="53"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="45"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -2225,39 +2232,39 @@
     </row>
     <row r="37" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="52"/>
-      <c r="AG37" s="52"/>
-      <c r="AH37" s="53"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="45"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -2267,39 +2274,39 @@
     </row>
     <row r="38" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="52"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="52"/>
-      <c r="AF38" s="52"/>
-      <c r="AG38" s="52"/>
-      <c r="AH38" s="53"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="45"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -2309,39 +2316,39 @@
     </row>
     <row r="39" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
-      <c r="AH39" s="53"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="45"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -2351,39 +2358,39 @@
     </row>
     <row r="40" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
-      <c r="AH40" s="53"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="44"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="45"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -2393,39 +2400,39 @@
     </row>
     <row r="41" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52"/>
-      <c r="AH41" s="53"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="44"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="45"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -2435,39 +2442,39 @@
     </row>
     <row r="42" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="52"/>
-      <c r="AF42" s="52"/>
-      <c r="AG42" s="52"/>
-      <c r="AH42" s="53"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="44"/>
+      <c r="AC42" s="44"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="45"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -2477,39 +2484,39 @@
     </row>
     <row r="43" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="51"/>
-      <c r="AB43" s="52"/>
-      <c r="AC43" s="52"/>
-      <c r="AD43" s="52"/>
-      <c r="AE43" s="52"/>
-      <c r="AF43" s="52"/>
-      <c r="AG43" s="52"/>
-      <c r="AH43" s="53"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="45"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -2519,39 +2526,39 @@
     </row>
     <row r="44" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="51"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="52"/>
-      <c r="AE44" s="52"/>
-      <c r="AF44" s="52"/>
-      <c r="AG44" s="52"/>
-      <c r="AH44" s="53"/>
+      <c r="AA44" s="43"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="45"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -2561,39 +2568,39 @@
     </row>
     <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="11"/>
-      <c r="AA45" s="54"/>
-      <c r="AB45" s="55"/>
-      <c r="AC45" s="55"/>
-      <c r="AD45" s="55"/>
-      <c r="AE45" s="55"/>
-      <c r="AF45" s="55"/>
-      <c r="AG45" s="55"/>
-      <c r="AH45" s="56"/>
+      <c r="AA45" s="62"/>
+      <c r="AB45" s="63"/>
+      <c r="AC45" s="63"/>
+      <c r="AD45" s="63"/>
+      <c r="AE45" s="63"/>
+      <c r="AF45" s="63"/>
+      <c r="AG45" s="63"/>
+      <c r="AH45" s="64"/>
       <c r="AI45" s="12"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -2603,39 +2610,39 @@
     </row>
     <row r="46" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="14"/>
-      <c r="AA46" s="57"/>
-      <c r="AB46" s="58"/>
-      <c r="AC46" s="58"/>
-      <c r="AD46" s="58"/>
-      <c r="AE46" s="58"/>
-      <c r="AF46" s="58"/>
-      <c r="AG46" s="58"/>
-      <c r="AH46" s="58"/>
+      <c r="AA46" s="48"/>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="49"/>
+      <c r="AD46" s="49"/>
+      <c r="AE46" s="49"/>
+      <c r="AF46" s="49"/>
+      <c r="AG46" s="49"/>
+      <c r="AH46" s="49"/>
       <c r="AI46" s="15"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -2645,39 +2652,39 @@
     </row>
     <row r="47" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="13"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
-      <c r="AD47" s="30"/>
-      <c r="AE47" s="30"/>
-      <c r="AF47" s="30"/>
-      <c r="AG47" s="30"/>
-      <c r="AH47" s="30"/>
+      <c r="AA47" s="41"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42"/>
+      <c r="AE47" s="42"/>
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="42"/>
+      <c r="AH47" s="42"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -2687,40 +2694,40 @@
     </row>
     <row r="48" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="39"/>
-      <c r="AA48" s="40"/>
-      <c r="AB48" s="40"/>
-      <c r="AC48" s="40"/>
-      <c r="AD48" s="40"/>
-      <c r="AE48" s="40"/>
-      <c r="AF48" s="40"/>
-      <c r="AG48" s="40"/>
-      <c r="AH48" s="40"/>
-      <c r="AI48" s="40"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51"/>
+      <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="51"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
@@ -2729,50 +2736,50 @@
     </row>
     <row r="49" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="59" t="s">
+      <c r="Z49" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AA49" s="60"/>
+      <c r="AA49" s="58"/>
       <c r="AB49" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AC49" s="60"/>
-      <c r="AD49" s="59" t="s">
+      <c r="AC49" s="58"/>
+      <c r="AD49" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="AE49" s="60"/>
-      <c r="AF49" s="59" t="s">
+      <c r="AE49" s="58"/>
+      <c r="AF49" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AG49" s="60"/>
-      <c r="AH49" s="31" t="s">
+      <c r="AG49" s="58"/>
+      <c r="AH49" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="AI49" s="64"/>
+      <c r="AI49" s="52"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -2781,40 +2788,40 @@
     </row>
     <row r="50" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23"/>
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="62"/>
-      <c r="AA50" s="63"/>
-      <c r="AB50" s="62"/>
-      <c r="AC50" s="63"/>
-      <c r="AD50" s="62"/>
-      <c r="AE50" s="63"/>
-      <c r="AF50" s="62"/>
-      <c r="AG50" s="63"/>
-      <c r="AH50" s="65"/>
-      <c r="AI50" s="66"/>
+      <c r="Z50" s="59"/>
+      <c r="AA50" s="60"/>
+      <c r="AB50" s="59"/>
+      <c r="AC50" s="60"/>
+      <c r="AD50" s="59"/>
+      <c r="AE50" s="60"/>
+      <c r="AF50" s="59"/>
+      <c r="AG50" s="60"/>
+      <c r="AH50" s="53"/>
+      <c r="AI50" s="54"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
@@ -2823,40 +2830,40 @@
     </row>
     <row r="51" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="36"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="36"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="36"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="36"/>
-      <c r="AH51" s="35"/>
-      <c r="AI51" s="36"/>
+      <c r="Z51" s="55"/>
+      <c r="AA51" s="56"/>
+      <c r="AB51" s="55"/>
+      <c r="AC51" s="56"/>
+      <c r="AD51" s="55"/>
+      <c r="AE51" s="56"/>
+      <c r="AF51" s="55"/>
+      <c r="AG51" s="56"/>
+      <c r="AH51" s="55"/>
+      <c r="AI51" s="56"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -7254,6 +7261,77 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AA21:AH21"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="AA16:AH16"/>
+    <mergeCell ref="AA17:AH17"/>
+    <mergeCell ref="AA18:AH18"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AH49:AI50"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AA28:AH28"/>
+    <mergeCell ref="AA29:AH29"/>
+    <mergeCell ref="AA30:AH30"/>
+    <mergeCell ref="AA31:AH31"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="Z49:AA50"/>
+    <mergeCell ref="AB49:AC50"/>
+    <mergeCell ref="AD49:AE50"/>
+    <mergeCell ref="AF49:AG50"/>
+    <mergeCell ref="AA44:AH44"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="AA46:AH46"/>
+    <mergeCell ref="AA47:AH47"/>
+    <mergeCell ref="Z48:AI48"/>
+    <mergeCell ref="AA32:AH32"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="AA34:AH34"/>
+    <mergeCell ref="AA35:AH35"/>
+    <mergeCell ref="AA43:AH43"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AA25:AH25"/>
+    <mergeCell ref="AA26:AH26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="AA36:AH36"/>
+    <mergeCell ref="AA37:AH37"/>
+    <mergeCell ref="AA38:AH38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AA40:AH40"/>
+    <mergeCell ref="AA41:AH41"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="Z1:AI2"/>
     <mergeCell ref="Z3:Z4"/>
@@ -7270,77 +7348,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="AA8:AH8"/>
-    <mergeCell ref="AA9:AH9"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA25:AH25"/>
-    <mergeCell ref="AA26:AH26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="AA36:AH36"/>
-    <mergeCell ref="AA37:AH37"/>
-    <mergeCell ref="AA38:AH38"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="AA40:AH40"/>
-    <mergeCell ref="AA41:AH41"/>
-    <mergeCell ref="AA46:AH46"/>
-    <mergeCell ref="AA47:AH47"/>
-    <mergeCell ref="Z48:AI48"/>
-    <mergeCell ref="AA32:AH32"/>
-    <mergeCell ref="AA33:AH33"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="AA35:AH35"/>
-    <mergeCell ref="AA43:AH43"/>
-    <mergeCell ref="AH49:AI50"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AA28:AH28"/>
-    <mergeCell ref="AA29:AH29"/>
-    <mergeCell ref="AA30:AH30"/>
-    <mergeCell ref="AA31:AH31"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="Z49:AA50"/>
-    <mergeCell ref="AB49:AC50"/>
-    <mergeCell ref="AD49:AE50"/>
-    <mergeCell ref="AF49:AG50"/>
-    <mergeCell ref="AA44:AH44"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="AA16:AH16"/>
-    <mergeCell ref="AA17:AH17"/>
-    <mergeCell ref="AA18:AH18"/>
-    <mergeCell ref="AA19:AH19"/>
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="98" orientation="landscape" r:id="rId1"/>

--- a/templates/electronicJournal2.xlsx
+++ b/templates/electronicJournal2.xlsx
@@ -363,38 +363,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -404,22 +375,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -457,11 +419,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,7 +681,7 @@
   <dimension ref="A1:AN996"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AA30" sqref="AA30:AH30"/>
+      <selection activeCell="B31" sqref="B31:V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -704,47 +704,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
       <c r="W1" s="4"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="30"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="59"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -752,41 +752,41 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
       <c r="W2" s="4"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="32"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="61"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -797,44 +797,44 @@
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="33" t="s">
+      <c r="Z3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="35" t="s">
+      <c r="AA3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="36" t="s">
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AJ3" s="1"/>
@@ -844,43 +844,43 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="34"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="63"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -888,40 +888,40 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="45"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="30"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -956,14 +956,14 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="45"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="30"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -998,14 +998,14 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="45"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="30"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -1040,14 +1040,14 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="45"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="30"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -1082,14 +1082,14 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="45"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="30"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -1124,14 +1124,14 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="45"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="30"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -1166,14 +1166,14 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="45"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="30"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -1208,14 +1208,14 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="45"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="30"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -1250,14 +1250,14 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="45"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="30"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -1292,14 +1292,14 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="45"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="30"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -1334,14 +1334,14 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="45"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="30"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -1376,14 +1376,14 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="45"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="30"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -1418,14 +1418,14 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="45"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="30"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -1460,14 +1460,14 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="45"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="30"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -1502,14 +1502,14 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="45"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="30"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -1544,14 +1544,14 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="45"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="30"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -1586,14 +1586,14 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="45"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="30"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -1628,14 +1628,14 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="45"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="30"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -1670,14 +1670,14 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="45"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="30"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -1712,14 +1712,14 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="45"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="30"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -1754,14 +1754,14 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="44"/>
-      <c r="AH25" s="45"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="30"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -1796,14 +1796,14 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="45"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="30"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -1837,14 +1837,14 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="45"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="30"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -1879,14 +1879,14 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="45"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="30"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -1921,14 +1921,14 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="45"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="30"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -1959,18 +1959,18 @@
       <c r="T30" s="24"/>
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="44"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="44"/>
-      <c r="AF30" s="44"/>
-      <c r="AG30" s="44"/>
-      <c r="AH30" s="45"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="30"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -1979,40 +1979,40 @@
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="66"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="45"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="30"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -2047,14 +2047,14 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="45"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="30"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -2089,14 +2089,14 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="44"/>
-      <c r="AG33" s="44"/>
-      <c r="AH33" s="45"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="30"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -2131,14 +2131,14 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="43"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="44"/>
-      <c r="AG34" s="44"/>
-      <c r="AH34" s="45"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="30"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -2173,14 +2173,14 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="43"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="44"/>
-      <c r="AD35" s="44"/>
-      <c r="AE35" s="44"/>
-      <c r="AF35" s="44"/>
-      <c r="AG35" s="44"/>
-      <c r="AH35" s="45"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="30"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -2215,14 +2215,14 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="44"/>
-      <c r="AC36" s="44"/>
-      <c r="AD36" s="44"/>
-      <c r="AE36" s="44"/>
-      <c r="AF36" s="44"/>
-      <c r="AG36" s="44"/>
-      <c r="AH36" s="45"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="30"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -2257,14 +2257,14 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="43"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="44"/>
-      <c r="AD37" s="44"/>
-      <c r="AE37" s="44"/>
-      <c r="AF37" s="44"/>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="45"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="30"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -2299,14 +2299,14 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="44"/>
-      <c r="AF38" s="44"/>
-      <c r="AG38" s="44"/>
-      <c r="AH38" s="45"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="30"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -2341,14 +2341,14 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="44"/>
-      <c r="AF39" s="44"/>
-      <c r="AG39" s="44"/>
-      <c r="AH39" s="45"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="30"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -2383,14 +2383,14 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="44"/>
-      <c r="AC40" s="44"/>
-      <c r="AD40" s="44"/>
-      <c r="AE40" s="44"/>
-      <c r="AF40" s="44"/>
-      <c r="AG40" s="44"/>
-      <c r="AH40" s="45"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="30"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -2425,14 +2425,14 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="44"/>
-      <c r="AF41" s="44"/>
-      <c r="AG41" s="44"/>
-      <c r="AH41" s="45"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="30"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -2467,14 +2467,14 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="44"/>
-      <c r="AC42" s="44"/>
-      <c r="AD42" s="44"/>
-      <c r="AE42" s="44"/>
-      <c r="AF42" s="44"/>
-      <c r="AG42" s="44"/>
-      <c r="AH42" s="45"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="29"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="30"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -2509,14 +2509,14 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="43"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="44"/>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="44"/>
-      <c r="AH43" s="45"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="30"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -2551,14 +2551,14 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="43"/>
-      <c r="AB44" s="44"/>
-      <c r="AC44" s="44"/>
-      <c r="AD44" s="44"/>
-      <c r="AE44" s="44"/>
-      <c r="AF44" s="44"/>
-      <c r="AG44" s="44"/>
-      <c r="AH44" s="45"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="30"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -2593,14 +2593,14 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="11"/>
-      <c r="AA45" s="62"/>
-      <c r="AB45" s="63"/>
-      <c r="AC45" s="63"/>
-      <c r="AD45" s="63"/>
-      <c r="AE45" s="63"/>
-      <c r="AF45" s="63"/>
-      <c r="AG45" s="63"/>
-      <c r="AH45" s="64"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="45"/>
+      <c r="AC45" s="45"/>
+      <c r="AD45" s="45"/>
+      <c r="AE45" s="45"/>
+      <c r="AF45" s="45"/>
+      <c r="AG45" s="45"/>
+      <c r="AH45" s="46"/>
       <c r="AI45" s="12"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -2635,14 +2635,14 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="14"/>
-      <c r="AA46" s="48"/>
-      <c r="AB46" s="49"/>
-      <c r="AC46" s="49"/>
-      <c r="AD46" s="49"/>
-      <c r="AE46" s="49"/>
-      <c r="AF46" s="49"/>
-      <c r="AG46" s="49"/>
-      <c r="AH46" s="49"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="48"/>
+      <c r="AC46" s="48"/>
+      <c r="AD46" s="48"/>
+      <c r="AE46" s="48"/>
+      <c r="AF46" s="48"/>
+      <c r="AG46" s="48"/>
+      <c r="AH46" s="48"/>
       <c r="AI46" s="15"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -2677,14 +2677,14 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="13"/>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="42"/>
-      <c r="AC47" s="42"/>
-      <c r="AD47" s="42"/>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -2718,16 +2718,16 @@
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AE48" s="51"/>
-      <c r="AF48" s="51"/>
-      <c r="AG48" s="51"/>
-      <c r="AH48" s="51"/>
-      <c r="AI48" s="51"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="50"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
@@ -2760,26 +2760,26 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="57" t="s">
+      <c r="Z49" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="AA49" s="58"/>
-      <c r="AB49" s="61" t="s">
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AC49" s="58"/>
-      <c r="AD49" s="57" t="s">
+      <c r="AC49" s="40"/>
+      <c r="AD49" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AE49" s="58"/>
-      <c r="AF49" s="57" t="s">
+      <c r="AE49" s="40"/>
+      <c r="AF49" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AG49" s="58"/>
-      <c r="AH49" s="35" t="s">
+      <c r="AG49" s="40"/>
+      <c r="AH49" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="AI49" s="52"/>
+      <c r="AI49" s="34"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -2812,16 +2812,16 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="59"/>
-      <c r="AA50" s="60"/>
-      <c r="AB50" s="59"/>
-      <c r="AC50" s="60"/>
-      <c r="AD50" s="59"/>
-      <c r="AE50" s="60"/>
-      <c r="AF50" s="59"/>
-      <c r="AG50" s="60"/>
-      <c r="AH50" s="53"/>
-      <c r="AI50" s="54"/>
+      <c r="Z50" s="41"/>
+      <c r="AA50" s="42"/>
+      <c r="AB50" s="41"/>
+      <c r="AC50" s="42"/>
+      <c r="AD50" s="41"/>
+      <c r="AE50" s="42"/>
+      <c r="AF50" s="41"/>
+      <c r="AG50" s="42"/>
+      <c r="AH50" s="35"/>
+      <c r="AI50" s="36"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
@@ -2854,16 +2854,16 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="55"/>
-      <c r="AA51" s="56"/>
-      <c r="AB51" s="55"/>
-      <c r="AC51" s="56"/>
-      <c r="AD51" s="55"/>
-      <c r="AE51" s="56"/>
-      <c r="AF51" s="55"/>
-      <c r="AG51" s="56"/>
-      <c r="AH51" s="55"/>
-      <c r="AI51" s="56"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="38"/>
+      <c r="AB51" s="37"/>
+      <c r="AC51" s="38"/>
+      <c r="AD51" s="37"/>
+      <c r="AE51" s="38"/>
+      <c r="AF51" s="37"/>
+      <c r="AG51" s="38"/>
+      <c r="AH51" s="37"/>
+      <c r="AI51" s="38"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -7261,16 +7261,67 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="AA16:AH16"/>
-    <mergeCell ref="AA17:AH17"/>
-    <mergeCell ref="AA18:AH18"/>
-    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:AI2"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AA25:AH25"/>
+    <mergeCell ref="AA26:AH26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="AA36:AH36"/>
+    <mergeCell ref="AA37:AH37"/>
+    <mergeCell ref="AA38:AH38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AA40:AH40"/>
+    <mergeCell ref="AA41:AH41"/>
+    <mergeCell ref="AA46:AH46"/>
+    <mergeCell ref="AA47:AH47"/>
+    <mergeCell ref="Z48:AI48"/>
+    <mergeCell ref="AA32:AH32"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="AA34:AH34"/>
+    <mergeCell ref="AA35:AH35"/>
+    <mergeCell ref="AA43:AH43"/>
     <mergeCell ref="AH49:AI50"/>
     <mergeCell ref="Z51:AA51"/>
     <mergeCell ref="AB51:AC51"/>
@@ -7287,67 +7338,16 @@
     <mergeCell ref="AF49:AG50"/>
     <mergeCell ref="AA44:AH44"/>
     <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA46:AH46"/>
-    <mergeCell ref="AA47:AH47"/>
-    <mergeCell ref="Z48:AI48"/>
-    <mergeCell ref="AA32:AH32"/>
-    <mergeCell ref="AA33:AH33"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="AA35:AH35"/>
-    <mergeCell ref="AA43:AH43"/>
-    <mergeCell ref="AA9:AH9"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA25:AH25"/>
-    <mergeCell ref="AA26:AH26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="AA36:AH36"/>
-    <mergeCell ref="AA37:AH37"/>
-    <mergeCell ref="AA38:AH38"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="AA40:AH40"/>
-    <mergeCell ref="AA41:AH41"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="AA8:AH8"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:AI2"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="AA16:AH16"/>
+    <mergeCell ref="AA17:AH17"/>
+    <mergeCell ref="AA18:AH18"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AA21:AH21"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="98" orientation="landscape" r:id="rId1"/>

--- a/templates/electronicJournal2.xlsx
+++ b/templates/electronicJournal2.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +115,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -339,9 +347,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -366,6 +371,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -375,13 +415,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -419,49 +468,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,7 +689,7 @@
   <dimension ref="A1:AN996"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:V31"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -704,47 +712,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
       <c r="W1" s="4"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="56" t="s">
+      <c r="Z1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="59"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="31"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -752,41 +760,41 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
       <c r="W2" s="4"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="61"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -797,44 +805,44 @@
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="62" t="s">
+      <c r="Z3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="33" t="s">
+      <c r="AA3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="64" t="s">
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="37" t="s">
         <v>6</v>
       </c>
       <c r="AJ3" s="1"/>
@@ -844,43 +852,43 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="63"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="35"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -888,40 +896,40 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="30"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="46"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -931,39 +939,39 @@
     </row>
     <row r="6" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="30"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="46"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -973,39 +981,39 @@
     </row>
     <row r="7" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="30"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="46"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -1015,39 +1023,39 @@
     </row>
     <row r="8" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="30"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="46"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -1057,39 +1065,39 @@
     </row>
     <row r="9" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="30"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="46"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -1099,39 +1107,39 @@
     </row>
     <row r="10" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="30"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="46"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -1141,39 +1149,39 @@
     </row>
     <row r="11" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="30"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="46"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -1183,39 +1191,39 @@
     </row>
     <row r="12" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="30"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="46"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -1225,39 +1233,39 @@
     </row>
     <row r="13" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="30"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="46"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -1267,39 +1275,39 @@
     </row>
     <row r="14" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="30"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="46"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -1309,39 +1317,39 @@
     </row>
     <row r="15" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="30"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="46"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -1351,39 +1359,39 @@
     </row>
     <row r="16" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="30"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="46"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -1393,39 +1401,39 @@
     </row>
     <row r="17" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="30"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="46"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -1435,39 +1443,39 @@
     </row>
     <row r="18" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="30"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="46"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -1477,39 +1485,39 @@
     </row>
     <row r="19" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="30"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="46"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -1519,39 +1527,39 @@
     </row>
     <row r="20" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="30"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="46"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -1561,39 +1569,39 @@
     </row>
     <row r="21" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="30"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="46"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -1603,39 +1611,39 @@
     </row>
     <row r="22" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="30"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="46"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -1645,39 +1653,39 @@
     </row>
     <row r="23" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="30"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="46"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -1687,39 +1695,39 @@
     </row>
     <row r="24" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="30"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="46"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -1729,39 +1737,39 @@
     </row>
     <row r="25" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="30"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="46"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -1771,39 +1779,39 @@
     </row>
     <row r="26" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="30"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="46"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -1812,39 +1820,39 @@
       <c r="AN26" s="1"/>
     </row>
     <row r="27" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="30"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="46"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -1853,40 +1861,40 @@
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="30"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="45"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="46"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -1895,40 +1903,40 @@
       <c r="AN28" s="1"/>
     </row>
     <row r="29" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="30"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="46"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -1937,40 +1945,40 @@
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="30"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="46"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -1979,40 +1987,40 @@
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="30"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="46"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -2022,39 +2030,39 @@
     </row>
     <row r="32" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="30"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="46"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -2064,39 +2072,39 @@
     </row>
     <row r="33" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
-      <c r="AF33" s="29"/>
-      <c r="AG33" s="29"/>
-      <c r="AH33" s="30"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="46"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -2106,39 +2114,39 @@
     </row>
     <row r="34" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="29"/>
-      <c r="AH34" s="30"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="46"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -2148,39 +2156,39 @@
     </row>
     <row r="35" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="29"/>
-      <c r="AF35" s="29"/>
-      <c r="AG35" s="29"/>
-      <c r="AH35" s="30"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="46"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -2190,39 +2198,39 @@
     </row>
     <row r="36" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="29"/>
-      <c r="AF36" s="29"/>
-      <c r="AG36" s="29"/>
-      <c r="AH36" s="30"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="45"/>
+      <c r="AD36" s="45"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="45"/>
+      <c r="AH36" s="46"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -2232,39 +2240,39 @@
     </row>
     <row r="37" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="29"/>
-      <c r="AG37" s="29"/>
-      <c r="AH37" s="30"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="45"/>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="46"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -2274,39 +2282,39 @@
     </row>
     <row r="38" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="30"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="45"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="45"/>
+      <c r="AG38" s="45"/>
+      <c r="AH38" s="46"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -2316,39 +2324,39 @@
     </row>
     <row r="39" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="30"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AE39" s="45"/>
+      <c r="AF39" s="45"/>
+      <c r="AG39" s="45"/>
+      <c r="AH39" s="46"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -2358,39 +2366,39 @@
     </row>
     <row r="40" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="29"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="30"/>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="45"/>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="45"/>
+      <c r="AG40" s="45"/>
+      <c r="AH40" s="46"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -2400,39 +2408,39 @@
     </row>
     <row r="41" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="30"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="45"/>
+      <c r="AF41" s="45"/>
+      <c r="AG41" s="45"/>
+      <c r="AH41" s="46"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -2442,39 +2450,39 @@
     </row>
     <row r="42" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
-      <c r="AF42" s="29"/>
-      <c r="AG42" s="29"/>
-      <c r="AH42" s="30"/>
+      <c r="AA42" s="44"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="45"/>
+      <c r="AE42" s="45"/>
+      <c r="AF42" s="45"/>
+      <c r="AG42" s="45"/>
+      <c r="AH42" s="46"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -2484,39 +2492,39 @@
     </row>
     <row r="43" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
-      <c r="AG43" s="29"/>
-      <c r="AH43" s="30"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="45"/>
+      <c r="AD43" s="45"/>
+      <c r="AE43" s="45"/>
+      <c r="AF43" s="45"/>
+      <c r="AG43" s="45"/>
+      <c r="AH43" s="46"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -2526,39 +2534,39 @@
     </row>
     <row r="44" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
-      <c r="AG44" s="29"/>
-      <c r="AH44" s="30"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="45"/>
+      <c r="AC44" s="45"/>
+      <c r="AD44" s="45"/>
+      <c r="AE44" s="45"/>
+      <c r="AF44" s="45"/>
+      <c r="AG44" s="45"/>
+      <c r="AH44" s="46"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -2568,39 +2576,39 @@
     </row>
     <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="11"/>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="45"/>
-      <c r="AC45" s="45"/>
-      <c r="AD45" s="45"/>
-      <c r="AE45" s="45"/>
-      <c r="AF45" s="45"/>
-      <c r="AG45" s="45"/>
-      <c r="AH45" s="46"/>
+      <c r="AA45" s="63"/>
+      <c r="AB45" s="64"/>
+      <c r="AC45" s="64"/>
+      <c r="AD45" s="64"/>
+      <c r="AE45" s="64"/>
+      <c r="AF45" s="64"/>
+      <c r="AG45" s="64"/>
+      <c r="AH45" s="65"/>
       <c r="AI45" s="12"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -2610,39 +2618,39 @@
     </row>
     <row r="46" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="14"/>
-      <c r="AA46" s="47"/>
-      <c r="AB46" s="48"/>
-      <c r="AC46" s="48"/>
-      <c r="AD46" s="48"/>
-      <c r="AE46" s="48"/>
-      <c r="AF46" s="48"/>
-      <c r="AG46" s="48"/>
-      <c r="AH46" s="48"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="50"/>
+      <c r="AD46" s="50"/>
+      <c r="AE46" s="50"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="50"/>
+      <c r="AH46" s="50"/>
       <c r="AI46" s="15"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -2652,39 +2660,39 @@
     </row>
     <row r="47" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="13"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="32"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="32"/>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="43"/>
+      <c r="AC47" s="43"/>
+      <c r="AD47" s="43"/>
+      <c r="AE47" s="43"/>
+      <c r="AF47" s="43"/>
+      <c r="AG47" s="43"/>
+      <c r="AH47" s="43"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -2694,40 +2702,40 @@
     </row>
     <row r="48" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AE48" s="50"/>
-      <c r="AF48" s="50"/>
-      <c r="AG48" s="50"/>
-      <c r="AH48" s="50"/>
-      <c r="AI48" s="50"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="52"/>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="52"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
@@ -2736,50 +2744,50 @@
     </row>
     <row r="49" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="39" t="s">
+      <c r="Z49" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="AA49" s="40"/>
-      <c r="AB49" s="43" t="s">
+      <c r="AA49" s="59"/>
+      <c r="AB49" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="AC49" s="40"/>
-      <c r="AD49" s="39" t="s">
+      <c r="AC49" s="59"/>
+      <c r="AD49" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="AE49" s="40"/>
-      <c r="AF49" s="39" t="s">
+      <c r="AE49" s="59"/>
+      <c r="AF49" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AG49" s="40"/>
-      <c r="AH49" s="33" t="s">
+      <c r="AG49" s="59"/>
+      <c r="AH49" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="AI49" s="34"/>
+      <c r="AI49" s="53"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -2788,40 +2796,40 @@
     </row>
     <row r="50" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="41"/>
-      <c r="AA50" s="42"/>
-      <c r="AB50" s="41"/>
-      <c r="AC50" s="42"/>
-      <c r="AD50" s="41"/>
-      <c r="AE50" s="42"/>
-      <c r="AF50" s="41"/>
-      <c r="AG50" s="42"/>
-      <c r="AH50" s="35"/>
-      <c r="AI50" s="36"/>
+      <c r="Z50" s="60"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="60"/>
+      <c r="AC50" s="61"/>
+      <c r="AD50" s="60"/>
+      <c r="AE50" s="61"/>
+      <c r="AF50" s="60"/>
+      <c r="AG50" s="61"/>
+      <c r="AH50" s="54"/>
+      <c r="AI50" s="55"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
@@ -2830,40 +2838,40 @@
     </row>
     <row r="51" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="37"/>
-      <c r="AA51" s="38"/>
-      <c r="AB51" s="37"/>
-      <c r="AC51" s="38"/>
-      <c r="AD51" s="37"/>
-      <c r="AE51" s="38"/>
-      <c r="AF51" s="37"/>
-      <c r="AG51" s="38"/>
-      <c r="AH51" s="37"/>
-      <c r="AI51" s="38"/>
+      <c r="Z51" s="56"/>
+      <c r="AA51" s="57"/>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="57"/>
+      <c r="AD51" s="56"/>
+      <c r="AE51" s="57"/>
+      <c r="AF51" s="56"/>
+      <c r="AG51" s="57"/>
+      <c r="AH51" s="56"/>
+      <c r="AI51" s="57"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -7261,6 +7269,77 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AA21:AH21"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="AA16:AH16"/>
+    <mergeCell ref="AA17:AH17"/>
+    <mergeCell ref="AA18:AH18"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AH49:AI50"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AA28:AH28"/>
+    <mergeCell ref="AA29:AH29"/>
+    <mergeCell ref="AA30:AH30"/>
+    <mergeCell ref="AA31:AH31"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="Z49:AA50"/>
+    <mergeCell ref="AB49:AC50"/>
+    <mergeCell ref="AD49:AE50"/>
+    <mergeCell ref="AF49:AG50"/>
+    <mergeCell ref="AA44:AH44"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="AA46:AH46"/>
+    <mergeCell ref="AA47:AH47"/>
+    <mergeCell ref="Z48:AI48"/>
+    <mergeCell ref="AA32:AH32"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="AA34:AH34"/>
+    <mergeCell ref="AA35:AH35"/>
+    <mergeCell ref="AA43:AH43"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AA25:AH25"/>
+    <mergeCell ref="AA26:AH26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="AA36:AH36"/>
+    <mergeCell ref="AA37:AH37"/>
+    <mergeCell ref="AA38:AH38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AA40:AH40"/>
+    <mergeCell ref="AA41:AH41"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="Z1:AI2"/>
     <mergeCell ref="Z3:Z4"/>
@@ -7277,77 +7356,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="AA8:AH8"/>
-    <mergeCell ref="AA9:AH9"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA25:AH25"/>
-    <mergeCell ref="AA26:AH26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="AA36:AH36"/>
-    <mergeCell ref="AA37:AH37"/>
-    <mergeCell ref="AA38:AH38"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="AA40:AH40"/>
-    <mergeCell ref="AA41:AH41"/>
-    <mergeCell ref="AA46:AH46"/>
-    <mergeCell ref="AA47:AH47"/>
-    <mergeCell ref="Z48:AI48"/>
-    <mergeCell ref="AA32:AH32"/>
-    <mergeCell ref="AA33:AH33"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="AA35:AH35"/>
-    <mergeCell ref="AA43:AH43"/>
-    <mergeCell ref="AH49:AI50"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AA28:AH28"/>
-    <mergeCell ref="AA29:AH29"/>
-    <mergeCell ref="AA30:AH30"/>
-    <mergeCell ref="AA31:AH31"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="Z49:AA50"/>
-    <mergeCell ref="AB49:AC50"/>
-    <mergeCell ref="AD49:AE50"/>
-    <mergeCell ref="AF49:AG50"/>
-    <mergeCell ref="AA44:AH44"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="AA16:AH16"/>
-    <mergeCell ref="AA17:AH17"/>
-    <mergeCell ref="AA18:AH18"/>
-    <mergeCell ref="AA19:AH19"/>
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="98" orientation="landscape" r:id="rId1"/>

--- a/templates/electronicJournal2.xlsx
+++ b/templates/electronicJournal2.xlsx
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -359,53 +359,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -415,22 +374,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -468,8 +418,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,7 +686,7 @@
   <dimension ref="A1:AN996"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -712,47 +709,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
       <c r="W1" s="4"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="31"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="56"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -760,41 +757,41 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
       <c r="W2" s="4"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="33"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="58"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -805,44 +802,44 @@
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="34" t="s">
+      <c r="Z3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="36" t="s">
+      <c r="AA3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="37" t="s">
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="61" t="s">
         <v>6</v>
       </c>
       <c r="AJ3" s="1"/>
@@ -852,43 +849,43 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="35"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="60"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -896,40 +893,40 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="46"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="27"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -964,14 +961,14 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="46"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="27"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -1006,14 +1003,14 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="46"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="27"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -1048,14 +1045,14 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="46"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="27"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -1090,14 +1087,14 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="46"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="27"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -1132,14 +1129,14 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="46"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="27"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -1174,14 +1171,14 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="46"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="27"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -1216,14 +1213,14 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="46"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="27"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -1258,14 +1255,14 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="46"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="27"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -1300,14 +1297,14 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="46"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="27"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -1342,14 +1339,14 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="46"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="27"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -1384,14 +1381,14 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="46"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="27"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -1426,14 +1423,14 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="46"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="27"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -1468,14 +1465,14 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="46"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="27"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -1510,14 +1507,14 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="46"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="27"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -1552,14 +1549,14 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="46"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="27"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -1594,14 +1591,14 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="46"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="27"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -1636,14 +1633,14 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="46"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="27"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -1678,14 +1675,14 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="46"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="27"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -1720,14 +1717,14 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="46"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="27"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -1762,14 +1759,14 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="46"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="27"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -1779,39 +1776,39 @@
     </row>
     <row r="26" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="46"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="27"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -1820,39 +1817,39 @@
       <c r="AN26" s="1"/>
     </row>
     <row r="27" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="66"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="46"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="27"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -1861,40 +1858,40 @@
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="46"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="27"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -1904,39 +1901,39 @@
     </row>
     <row r="29" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="46"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="27"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -1946,39 +1943,39 @@
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="44"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="46"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="27"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -1987,40 +1984,40 @@
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="46"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="27"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -2055,14 +2052,14 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="45"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="46"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="27"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -2097,14 +2094,14 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="46"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="27"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -2139,14 +2136,14 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="46"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="27"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -2181,14 +2178,14 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="44"/>
-      <c r="AB35" s="45"/>
-      <c r="AC35" s="45"/>
-      <c r="AD35" s="45"/>
-      <c r="AE35" s="45"/>
-      <c r="AF35" s="45"/>
-      <c r="AG35" s="45"/>
-      <c r="AH35" s="46"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="27"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -2223,14 +2220,14 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="44"/>
-      <c r="AB36" s="45"/>
-      <c r="AC36" s="45"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="45"/>
-      <c r="AH36" s="46"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="27"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -2265,14 +2262,14 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="44"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="46"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="27"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -2307,14 +2304,14 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="44"/>
-      <c r="AB38" s="45"/>
-      <c r="AC38" s="45"/>
-      <c r="AD38" s="45"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="45"/>
-      <c r="AG38" s="45"/>
-      <c r="AH38" s="46"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="27"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -2349,14 +2346,14 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="45"/>
-      <c r="AC39" s="45"/>
-      <c r="AD39" s="45"/>
-      <c r="AE39" s="45"/>
-      <c r="AF39" s="45"/>
-      <c r="AG39" s="45"/>
-      <c r="AH39" s="46"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="27"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -2391,14 +2388,14 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="44"/>
-      <c r="AB40" s="45"/>
-      <c r="AC40" s="45"/>
-      <c r="AD40" s="45"/>
-      <c r="AE40" s="45"/>
-      <c r="AF40" s="45"/>
-      <c r="AG40" s="45"/>
-      <c r="AH40" s="46"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="27"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -2433,14 +2430,14 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="45"/>
-      <c r="AC41" s="45"/>
-      <c r="AD41" s="45"/>
-      <c r="AE41" s="45"/>
-      <c r="AF41" s="45"/>
-      <c r="AG41" s="45"/>
-      <c r="AH41" s="46"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="27"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -2475,14 +2472,14 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="44"/>
-      <c r="AB42" s="45"/>
-      <c r="AC42" s="45"/>
-      <c r="AD42" s="45"/>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="45"/>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="46"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="26"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="27"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -2517,14 +2514,14 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="45"/>
-      <c r="AC43" s="45"/>
-      <c r="AD43" s="45"/>
-      <c r="AE43" s="45"/>
-      <c r="AF43" s="45"/>
-      <c r="AG43" s="45"/>
-      <c r="AH43" s="46"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="26"/>
+      <c r="AE43" s="26"/>
+      <c r="AF43" s="26"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="27"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -2559,14 +2556,14 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="45"/>
-      <c r="AC44" s="45"/>
-      <c r="AD44" s="45"/>
-      <c r="AE44" s="45"/>
-      <c r="AF44" s="45"/>
-      <c r="AG44" s="45"/>
-      <c r="AH44" s="46"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="27"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -2601,14 +2598,14 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="11"/>
-      <c r="AA45" s="63"/>
-      <c r="AB45" s="64"/>
-      <c r="AC45" s="64"/>
-      <c r="AD45" s="64"/>
-      <c r="AE45" s="64"/>
-      <c r="AF45" s="64"/>
-      <c r="AG45" s="64"/>
-      <c r="AH45" s="65"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="42"/>
+      <c r="AC45" s="42"/>
+      <c r="AD45" s="42"/>
+      <c r="AE45" s="42"/>
+      <c r="AF45" s="42"/>
+      <c r="AG45" s="42"/>
+      <c r="AH45" s="43"/>
       <c r="AI45" s="12"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -2643,14 +2640,14 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="14"/>
-      <c r="AA46" s="49"/>
-      <c r="AB46" s="50"/>
-      <c r="AC46" s="50"/>
-      <c r="AD46" s="50"/>
-      <c r="AE46" s="50"/>
-      <c r="AF46" s="50"/>
-      <c r="AG46" s="50"/>
-      <c r="AH46" s="50"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="45"/>
+      <c r="AC46" s="45"/>
+      <c r="AD46" s="45"/>
+      <c r="AE46" s="45"/>
+      <c r="AF46" s="45"/>
+      <c r="AG46" s="45"/>
+      <c r="AH46" s="45"/>
       <c r="AI46" s="15"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -2685,14 +2682,14 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="13"/>
-      <c r="AA47" s="42"/>
-      <c r="AB47" s="43"/>
-      <c r="AC47" s="43"/>
-      <c r="AD47" s="43"/>
-      <c r="AE47" s="43"/>
-      <c r="AF47" s="43"/>
-      <c r="AG47" s="43"/>
-      <c r="AH47" s="43"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -2726,16 +2723,16 @@
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="52"/>
-      <c r="AF48" s="52"/>
-      <c r="AG48" s="52"/>
-      <c r="AH48" s="52"/>
-      <c r="AI48" s="52"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="47"/>
+      <c r="AE48" s="47"/>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="47"/>
+      <c r="AH48" s="47"/>
+      <c r="AI48" s="47"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
@@ -2768,26 +2765,26 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="58" t="s">
+      <c r="Z49" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AA49" s="59"/>
-      <c r="AB49" s="62" t="s">
+      <c r="AA49" s="37"/>
+      <c r="AB49" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AC49" s="59"/>
-      <c r="AD49" s="58" t="s">
+      <c r="AC49" s="37"/>
+      <c r="AD49" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AE49" s="59"/>
-      <c r="AF49" s="58" t="s">
+      <c r="AE49" s="37"/>
+      <c r="AF49" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AG49" s="59"/>
-      <c r="AH49" s="36" t="s">
+      <c r="AG49" s="37"/>
+      <c r="AH49" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AI49" s="53"/>
+      <c r="AI49" s="31"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -2820,16 +2817,16 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="60"/>
-      <c r="AA50" s="61"/>
-      <c r="AB50" s="60"/>
-      <c r="AC50" s="61"/>
-      <c r="AD50" s="60"/>
-      <c r="AE50" s="61"/>
-      <c r="AF50" s="60"/>
-      <c r="AG50" s="61"/>
-      <c r="AH50" s="54"/>
-      <c r="AI50" s="55"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="38"/>
+      <c r="AE50" s="39"/>
+      <c r="AF50" s="38"/>
+      <c r="AG50" s="39"/>
+      <c r="AH50" s="32"/>
+      <c r="AI50" s="33"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
@@ -2862,16 +2859,16 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="57"/>
-      <c r="AB51" s="56"/>
-      <c r="AC51" s="57"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" s="57"/>
-      <c r="AF51" s="56"/>
-      <c r="AG51" s="57"/>
-      <c r="AH51" s="56"/>
-      <c r="AI51" s="57"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="35"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="35"/>
+      <c r="AH51" s="34"/>
+      <c r="AI51" s="35"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -7269,16 +7266,67 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="AA16:AH16"/>
-    <mergeCell ref="AA17:AH17"/>
-    <mergeCell ref="AA18:AH18"/>
-    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:AI2"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AA25:AH25"/>
+    <mergeCell ref="AA26:AH26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="AA36:AH36"/>
+    <mergeCell ref="AA37:AH37"/>
+    <mergeCell ref="AA38:AH38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AA40:AH40"/>
+    <mergeCell ref="AA41:AH41"/>
+    <mergeCell ref="AA46:AH46"/>
+    <mergeCell ref="AA47:AH47"/>
+    <mergeCell ref="Z48:AI48"/>
+    <mergeCell ref="AA32:AH32"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="AA34:AH34"/>
+    <mergeCell ref="AA35:AH35"/>
+    <mergeCell ref="AA43:AH43"/>
     <mergeCell ref="AH49:AI50"/>
     <mergeCell ref="Z51:AA51"/>
     <mergeCell ref="AB51:AC51"/>
@@ -7295,67 +7343,16 @@
     <mergeCell ref="AF49:AG50"/>
     <mergeCell ref="AA44:AH44"/>
     <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA46:AH46"/>
-    <mergeCell ref="AA47:AH47"/>
-    <mergeCell ref="Z48:AI48"/>
-    <mergeCell ref="AA32:AH32"/>
-    <mergeCell ref="AA33:AH33"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="AA35:AH35"/>
-    <mergeCell ref="AA43:AH43"/>
-    <mergeCell ref="AA9:AH9"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA25:AH25"/>
-    <mergeCell ref="AA26:AH26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="AA36:AH36"/>
-    <mergeCell ref="AA37:AH37"/>
-    <mergeCell ref="AA38:AH38"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="AA40:AH40"/>
-    <mergeCell ref="AA41:AH41"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="AA8:AH8"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:AI2"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="AA16:AH16"/>
+    <mergeCell ref="AA17:AH17"/>
+    <mergeCell ref="AA18:AH18"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AA21:AH21"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="98" orientation="landscape" r:id="rId1"/>

--- a/templates/electronicJournal2.xlsx
+++ b/templates/electronicJournal2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenServer\OpenServer\domains\localhost\docs\docs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OSPanel\domains\localhost\docs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,9 +43,6 @@
     <t xml:space="preserve">Подпись </t>
   </si>
   <si>
-    <t>дата (дд) Фамилия,Имя_обучающегося</t>
-  </si>
-  <si>
     <t>Дата защиты</t>
   </si>
   <si>
@@ -59,6 +56,10 @@
   </si>
   <si>
     <t>№ приказа о завершении группы</t>
+  </si>
+  <si>
+    <t>дата (дд)
+Фамилия и инициалы</t>
   </si>
 </sst>
 </file>
@@ -365,6 +366,47 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -374,13 +416,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -417,56 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,7 +687,7 @@
   <dimension ref="A1:AN996"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -709,47 +710,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
       <c r="W1" s="4"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="53" t="s">
+      <c r="Z1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="56"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="31"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -757,41 +758,41 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="54"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
       <c r="W2" s="4"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="58"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -802,44 +803,44 @@
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="59" t="s">
+      <c r="Z3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="30" t="s">
+      <c r="AA3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="61" t="s">
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="37" t="s">
         <v>6</v>
       </c>
       <c r="AJ3" s="1"/>
@@ -849,43 +850,43 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
-        <v>7</v>
+      <c r="A4" s="38" t="s">
+        <v>12</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="60"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="35"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -893,40 +894,40 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="27"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="46"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -961,14 +962,14 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="27"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="46"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -1003,14 +1004,14 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="27"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="46"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -1045,14 +1046,14 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="27"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="46"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -1087,14 +1088,14 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="27"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="46"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -1129,14 +1130,14 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="27"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="46"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -1171,14 +1172,14 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="27"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="46"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -1213,14 +1214,14 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="27"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="46"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -1255,14 +1256,14 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="27"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="46"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -1297,14 +1298,14 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="27"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="46"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -1339,14 +1340,14 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="27"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="46"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -1381,14 +1382,14 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="27"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="46"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -1423,14 +1424,14 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="27"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="46"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -1465,14 +1466,14 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="27"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="46"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -1507,14 +1508,14 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="27"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="46"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -1549,14 +1550,14 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="27"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="46"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -1591,14 +1592,14 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="27"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="46"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -1633,14 +1634,14 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="27"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="46"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -1675,14 +1676,14 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="27"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="46"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -1717,14 +1718,14 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="27"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="46"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -1759,14 +1760,14 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="27"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="46"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -1776,39 +1777,39 @@
     </row>
     <row r="26" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="27"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="46"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -1818,38 +1819,38 @@
     </row>
     <row r="27" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="27"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="46"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -1859,39 +1860,39 @@
     </row>
     <row r="28" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="27"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="45"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="46"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -1926,14 +1927,14 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="27"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="46"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -1943,39 +1944,39 @@
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="27"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="46"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -1985,39 +1986,39 @@
     </row>
     <row r="31" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="27"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="46"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -2052,14 +2053,14 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="27"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="46"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -2094,14 +2095,14 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="27"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="46"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -2136,14 +2137,14 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="27"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="46"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -2178,14 +2179,14 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="27"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="46"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -2220,14 +2221,14 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="27"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="45"/>
+      <c r="AD36" s="45"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="45"/>
+      <c r="AH36" s="46"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -2262,14 +2263,14 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="27"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="45"/>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="46"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -2304,14 +2305,14 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="27"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="45"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="45"/>
+      <c r="AG38" s="45"/>
+      <c r="AH38" s="46"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -2346,14 +2347,14 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="27"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AE39" s="45"/>
+      <c r="AF39" s="45"/>
+      <c r="AG39" s="45"/>
+      <c r="AH39" s="46"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -2388,14 +2389,14 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="26"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="27"/>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="45"/>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="45"/>
+      <c r="AG40" s="45"/>
+      <c r="AH40" s="46"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -2430,14 +2431,14 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="26"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="27"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="45"/>
+      <c r="AF41" s="45"/>
+      <c r="AG41" s="45"/>
+      <c r="AH41" s="46"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -2472,14 +2473,14 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="26"/>
-      <c r="AE42" s="26"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="27"/>
+      <c r="AA42" s="44"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="45"/>
+      <c r="AE42" s="45"/>
+      <c r="AF42" s="45"/>
+      <c r="AG42" s="45"/>
+      <c r="AH42" s="46"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -2514,14 +2515,14 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="27"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="45"/>
+      <c r="AD43" s="45"/>
+      <c r="AE43" s="45"/>
+      <c r="AF43" s="45"/>
+      <c r="AG43" s="45"/>
+      <c r="AH43" s="46"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -2556,14 +2557,14 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="27"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="45"/>
+      <c r="AC44" s="45"/>
+      <c r="AD44" s="45"/>
+      <c r="AE44" s="45"/>
+      <c r="AF44" s="45"/>
+      <c r="AG44" s="45"/>
+      <c r="AH44" s="46"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -2598,14 +2599,14 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="11"/>
-      <c r="AA45" s="41"/>
-      <c r="AB45" s="42"/>
-      <c r="AC45" s="42"/>
-      <c r="AD45" s="42"/>
-      <c r="AE45" s="42"/>
-      <c r="AF45" s="42"/>
-      <c r="AG45" s="42"/>
-      <c r="AH45" s="43"/>
+      <c r="AA45" s="63"/>
+      <c r="AB45" s="64"/>
+      <c r="AC45" s="64"/>
+      <c r="AD45" s="64"/>
+      <c r="AE45" s="64"/>
+      <c r="AF45" s="64"/>
+      <c r="AG45" s="64"/>
+      <c r="AH45" s="65"/>
       <c r="AI45" s="12"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -2640,14 +2641,14 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="14"/>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="45"/>
-      <c r="AC46" s="45"/>
-      <c r="AD46" s="45"/>
-      <c r="AE46" s="45"/>
-      <c r="AF46" s="45"/>
-      <c r="AG46" s="45"/>
-      <c r="AH46" s="45"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="50"/>
+      <c r="AD46" s="50"/>
+      <c r="AE46" s="50"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="50"/>
+      <c r="AH46" s="50"/>
       <c r="AI46" s="15"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -2682,14 +2683,14 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="13"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="43"/>
+      <c r="AC47" s="43"/>
+      <c r="AD47" s="43"/>
+      <c r="AE47" s="43"/>
+      <c r="AF47" s="43"/>
+      <c r="AG47" s="43"/>
+      <c r="AH47" s="43"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -2723,16 +2724,16 @@
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="47"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
-      <c r="AD48" s="47"/>
-      <c r="AE48" s="47"/>
-      <c r="AF48" s="47"/>
-      <c r="AG48" s="47"/>
-      <c r="AH48" s="47"/>
-      <c r="AI48" s="47"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="52"/>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="52"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
@@ -2765,26 +2766,26 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="36" t="s">
+      <c r="Z49" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA49" s="59"/>
+      <c r="AB49" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC49" s="59"/>
+      <c r="AD49" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="AA49" s="37"/>
-      <c r="AB49" s="40" t="s">
+      <c r="AE49" s="59"/>
+      <c r="AF49" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AC49" s="37"/>
-      <c r="AD49" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE49" s="37"/>
-      <c r="AF49" s="36" t="s">
+      <c r="AG49" s="59"/>
+      <c r="AH49" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AG49" s="37"/>
-      <c r="AH49" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI49" s="31"/>
+      <c r="AI49" s="53"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -2817,16 +2818,16 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="38"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="38"/>
-      <c r="AC50" s="39"/>
-      <c r="AD50" s="38"/>
-      <c r="AE50" s="39"/>
-      <c r="AF50" s="38"/>
-      <c r="AG50" s="39"/>
-      <c r="AH50" s="32"/>
-      <c r="AI50" s="33"/>
+      <c r="Z50" s="60"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="60"/>
+      <c r="AC50" s="61"/>
+      <c r="AD50" s="60"/>
+      <c r="AE50" s="61"/>
+      <c r="AF50" s="60"/>
+      <c r="AG50" s="61"/>
+      <c r="AH50" s="54"/>
+      <c r="AI50" s="55"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
@@ -2859,16 +2860,16 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="34"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="34"/>
-      <c r="AI51" s="35"/>
+      <c r="Z51" s="56"/>
+      <c r="AA51" s="57"/>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="57"/>
+      <c r="AD51" s="56"/>
+      <c r="AE51" s="57"/>
+      <c r="AF51" s="56"/>
+      <c r="AG51" s="57"/>
+      <c r="AH51" s="56"/>
+      <c r="AI51" s="57"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -7266,6 +7267,77 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AA21:AH21"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="AA16:AH16"/>
+    <mergeCell ref="AA17:AH17"/>
+    <mergeCell ref="AA18:AH18"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AH49:AI50"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AA28:AH28"/>
+    <mergeCell ref="AA29:AH29"/>
+    <mergeCell ref="AA30:AH30"/>
+    <mergeCell ref="AA31:AH31"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="Z49:AA50"/>
+    <mergeCell ref="AB49:AC50"/>
+    <mergeCell ref="AD49:AE50"/>
+    <mergeCell ref="AF49:AG50"/>
+    <mergeCell ref="AA44:AH44"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="AA46:AH46"/>
+    <mergeCell ref="AA47:AH47"/>
+    <mergeCell ref="Z48:AI48"/>
+    <mergeCell ref="AA32:AH32"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="AA34:AH34"/>
+    <mergeCell ref="AA35:AH35"/>
+    <mergeCell ref="AA43:AH43"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AA25:AH25"/>
+    <mergeCell ref="AA26:AH26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="AA36:AH36"/>
+    <mergeCell ref="AA37:AH37"/>
+    <mergeCell ref="AA38:AH38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AA40:AH40"/>
+    <mergeCell ref="AA41:AH41"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="Z1:AI2"/>
     <mergeCell ref="Z3:Z4"/>
@@ -7282,77 +7354,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="AA8:AH8"/>
-    <mergeCell ref="AA9:AH9"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA25:AH25"/>
-    <mergeCell ref="AA26:AH26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="AA36:AH36"/>
-    <mergeCell ref="AA37:AH37"/>
-    <mergeCell ref="AA38:AH38"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="AA40:AH40"/>
-    <mergeCell ref="AA41:AH41"/>
-    <mergeCell ref="AA46:AH46"/>
-    <mergeCell ref="AA47:AH47"/>
-    <mergeCell ref="Z48:AI48"/>
-    <mergeCell ref="AA32:AH32"/>
-    <mergeCell ref="AA33:AH33"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="AA35:AH35"/>
-    <mergeCell ref="AA43:AH43"/>
-    <mergeCell ref="AH49:AI50"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AA28:AH28"/>
-    <mergeCell ref="AA29:AH29"/>
-    <mergeCell ref="AA30:AH30"/>
-    <mergeCell ref="AA31:AH31"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="Z49:AA50"/>
-    <mergeCell ref="AB49:AC50"/>
-    <mergeCell ref="AD49:AE50"/>
-    <mergeCell ref="AF49:AG50"/>
-    <mergeCell ref="AA44:AH44"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="AA16:AH16"/>
-    <mergeCell ref="AA17:AH17"/>
-    <mergeCell ref="AA18:AH18"/>
-    <mergeCell ref="AA19:AH19"/>
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="98" orientation="landscape" r:id="rId1"/>

--- a/templates/electronicJournal2.xlsx
+++ b/templates/electronicJournal2.xlsx
@@ -30,9 +30,6 @@
     <t>Тема проекта:</t>
   </si>
   <si>
-    <t>Месяц</t>
-  </si>
-  <si>
     <t>Дата
 (дд.мм.гг)</t>
   </si>
@@ -58,8 +55,11 @@
     <t>№ приказа о завершении группы</t>
   </si>
   <si>
-    <t>дата (дд)
+    <t>Дата (дд)
 Фамилия и инициалы</t>
+  </si>
+  <si>
+    <t>Месяц (мм)</t>
   </si>
 </sst>
 </file>
@@ -314,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -375,38 +375,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -416,22 +384,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +427,50 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN996"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -710,47 +713,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="4"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="31"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="57"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -758,41 +761,41 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
       <c r="W2" s="4"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="33"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="59"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -801,47 +804,47 @@
     </row>
     <row r="3" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="34" t="s">
+      <c r="Z3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="36" t="s">
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="62" t="s">
         <v>5</v>
-      </c>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="37" t="s">
-        <v>6</v>
       </c>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
@@ -850,43 +853,43 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>12</v>
+      <c r="A4" s="63" t="s">
+        <v>11</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="35"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="61"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -894,40 +897,40 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="46"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="30"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -962,14 +965,14 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="46"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="30"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -1004,14 +1007,14 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="46"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="30"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -1046,14 +1049,14 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="46"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="30"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -1088,14 +1091,14 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="46"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="30"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -1130,14 +1133,14 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="46"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="30"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -1172,14 +1175,14 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="46"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="30"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -1214,14 +1217,14 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="46"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="30"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -1256,14 +1259,14 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="46"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="30"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -1298,14 +1301,14 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="46"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="30"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -1340,14 +1343,14 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="46"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="30"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -1382,14 +1385,14 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="46"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="30"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -1424,14 +1427,14 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="46"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="30"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -1466,14 +1469,14 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="46"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="30"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -1508,14 +1511,14 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="46"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="30"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -1550,14 +1553,14 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="46"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="30"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -1592,14 +1595,14 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="46"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="30"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -1634,14 +1637,14 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="46"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="30"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -1676,14 +1679,14 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="46"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="30"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -1718,14 +1721,14 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="46"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="30"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -1760,14 +1763,14 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="46"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="30"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -1802,14 +1805,14 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="46"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="30"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -1843,14 +1846,14 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="46"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="30"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -1885,14 +1888,14 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="46"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="30"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -1927,14 +1930,14 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="46"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="30"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -1965,18 +1968,18 @@
       <c r="T30" s="25"/>
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="44"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="46"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="30"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -2007,18 +2010,18 @@
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="46"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="30"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -2053,14 +2056,14 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="45"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="46"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="30"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -2095,14 +2098,14 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="46"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="30"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -2137,14 +2140,14 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="46"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="30"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -2179,14 +2182,14 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="44"/>
-      <c r="AB35" s="45"/>
-      <c r="AC35" s="45"/>
-      <c r="AD35" s="45"/>
-      <c r="AE35" s="45"/>
-      <c r="AF35" s="45"/>
-      <c r="AG35" s="45"/>
-      <c r="AH35" s="46"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="30"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -2221,14 +2224,14 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="44"/>
-      <c r="AB36" s="45"/>
-      <c r="AC36" s="45"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="45"/>
-      <c r="AH36" s="46"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="30"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -2263,14 +2266,14 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="44"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="46"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="30"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -2305,14 +2308,14 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="44"/>
-      <c r="AB38" s="45"/>
-      <c r="AC38" s="45"/>
-      <c r="AD38" s="45"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="45"/>
-      <c r="AG38" s="45"/>
-      <c r="AH38" s="46"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="30"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -2347,14 +2350,14 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="45"/>
-      <c r="AC39" s="45"/>
-      <c r="AD39" s="45"/>
-      <c r="AE39" s="45"/>
-      <c r="AF39" s="45"/>
-      <c r="AG39" s="45"/>
-      <c r="AH39" s="46"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="30"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -2389,14 +2392,14 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="44"/>
-      <c r="AB40" s="45"/>
-      <c r="AC40" s="45"/>
-      <c r="AD40" s="45"/>
-      <c r="AE40" s="45"/>
-      <c r="AF40" s="45"/>
-      <c r="AG40" s="45"/>
-      <c r="AH40" s="46"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="30"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -2431,14 +2434,14 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="45"/>
-      <c r="AC41" s="45"/>
-      <c r="AD41" s="45"/>
-      <c r="AE41" s="45"/>
-      <c r="AF41" s="45"/>
-      <c r="AG41" s="45"/>
-      <c r="AH41" s="46"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="30"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -2473,14 +2476,14 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="44"/>
-      <c r="AB42" s="45"/>
-      <c r="AC42" s="45"/>
-      <c r="AD42" s="45"/>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="45"/>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="46"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="29"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="30"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -2515,14 +2518,14 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="45"/>
-      <c r="AC43" s="45"/>
-      <c r="AD43" s="45"/>
-      <c r="AE43" s="45"/>
-      <c r="AF43" s="45"/>
-      <c r="AG43" s="45"/>
-      <c r="AH43" s="46"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="30"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -2557,14 +2560,14 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="45"/>
-      <c r="AC44" s="45"/>
-      <c r="AD44" s="45"/>
-      <c r="AE44" s="45"/>
-      <c r="AF44" s="45"/>
-      <c r="AG44" s="45"/>
-      <c r="AH44" s="46"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="30"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -2599,14 +2602,14 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="11"/>
-      <c r="AA45" s="63"/>
-      <c r="AB45" s="64"/>
-      <c r="AC45" s="64"/>
-      <c r="AD45" s="64"/>
-      <c r="AE45" s="64"/>
-      <c r="AF45" s="64"/>
-      <c r="AG45" s="64"/>
-      <c r="AH45" s="65"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="45"/>
+      <c r="AC45" s="45"/>
+      <c r="AD45" s="45"/>
+      <c r="AE45" s="45"/>
+      <c r="AF45" s="45"/>
+      <c r="AG45" s="45"/>
+      <c r="AH45" s="46"/>
       <c r="AI45" s="12"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -2641,14 +2644,14 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="14"/>
-      <c r="AA46" s="49"/>
-      <c r="AB46" s="50"/>
-      <c r="AC46" s="50"/>
-      <c r="AD46" s="50"/>
-      <c r="AE46" s="50"/>
-      <c r="AF46" s="50"/>
-      <c r="AG46" s="50"/>
-      <c r="AH46" s="50"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="48"/>
+      <c r="AC46" s="48"/>
+      <c r="AD46" s="48"/>
+      <c r="AE46" s="48"/>
+      <c r="AF46" s="48"/>
+      <c r="AG46" s="48"/>
+      <c r="AH46" s="48"/>
       <c r="AI46" s="15"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -2683,14 +2686,14 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="13"/>
-      <c r="AA47" s="42"/>
-      <c r="AB47" s="43"/>
-      <c r="AC47" s="43"/>
-      <c r="AD47" s="43"/>
-      <c r="AE47" s="43"/>
-      <c r="AF47" s="43"/>
-      <c r="AG47" s="43"/>
-      <c r="AH47" s="43"/>
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -2724,16 +2727,16 @@
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="52"/>
-      <c r="AF48" s="52"/>
-      <c r="AG48" s="52"/>
-      <c r="AH48" s="52"/>
-      <c r="AI48" s="52"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="50"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
@@ -2766,26 +2769,26 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="58" t="s">
+      <c r="Z49" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC49" s="40"/>
+      <c r="AD49" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AA49" s="59"/>
-      <c r="AB49" s="62" t="s">
+      <c r="AE49" s="40"/>
+      <c r="AF49" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AC49" s="59"/>
-      <c r="AD49" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE49" s="59"/>
-      <c r="AF49" s="58" t="s">
+      <c r="AG49" s="40"/>
+      <c r="AH49" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AG49" s="59"/>
-      <c r="AH49" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI49" s="53"/>
+      <c r="AI49" s="34"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -2818,16 +2821,16 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="60"/>
-      <c r="AA50" s="61"/>
-      <c r="AB50" s="60"/>
-      <c r="AC50" s="61"/>
-      <c r="AD50" s="60"/>
-      <c r="AE50" s="61"/>
-      <c r="AF50" s="60"/>
-      <c r="AG50" s="61"/>
-      <c r="AH50" s="54"/>
-      <c r="AI50" s="55"/>
+      <c r="Z50" s="41"/>
+      <c r="AA50" s="42"/>
+      <c r="AB50" s="41"/>
+      <c r="AC50" s="42"/>
+      <c r="AD50" s="41"/>
+      <c r="AE50" s="42"/>
+      <c r="AF50" s="41"/>
+      <c r="AG50" s="42"/>
+      <c r="AH50" s="35"/>
+      <c r="AI50" s="36"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
@@ -2860,16 +2863,16 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="57"/>
-      <c r="AB51" s="56"/>
-      <c r="AC51" s="57"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" s="57"/>
-      <c r="AF51" s="56"/>
-      <c r="AG51" s="57"/>
-      <c r="AH51" s="56"/>
-      <c r="AI51" s="57"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="38"/>
+      <c r="AB51" s="37"/>
+      <c r="AC51" s="38"/>
+      <c r="AD51" s="37"/>
+      <c r="AE51" s="38"/>
+      <c r="AF51" s="37"/>
+      <c r="AG51" s="38"/>
+      <c r="AH51" s="37"/>
+      <c r="AI51" s="38"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -7267,16 +7270,67 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="AA16:AH16"/>
-    <mergeCell ref="AA17:AH17"/>
-    <mergeCell ref="AA18:AH18"/>
-    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:AI2"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AA25:AH25"/>
+    <mergeCell ref="AA26:AH26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="AA36:AH36"/>
+    <mergeCell ref="AA37:AH37"/>
+    <mergeCell ref="AA38:AH38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AA40:AH40"/>
+    <mergeCell ref="AA41:AH41"/>
+    <mergeCell ref="AA46:AH46"/>
+    <mergeCell ref="AA47:AH47"/>
+    <mergeCell ref="Z48:AI48"/>
+    <mergeCell ref="AA32:AH32"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="AA34:AH34"/>
+    <mergeCell ref="AA35:AH35"/>
+    <mergeCell ref="AA43:AH43"/>
     <mergeCell ref="AH49:AI50"/>
     <mergeCell ref="Z51:AA51"/>
     <mergeCell ref="AB51:AC51"/>
@@ -7293,67 +7347,16 @@
     <mergeCell ref="AF49:AG50"/>
     <mergeCell ref="AA44:AH44"/>
     <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA46:AH46"/>
-    <mergeCell ref="AA47:AH47"/>
-    <mergeCell ref="Z48:AI48"/>
-    <mergeCell ref="AA32:AH32"/>
-    <mergeCell ref="AA33:AH33"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="AA35:AH35"/>
-    <mergeCell ref="AA43:AH43"/>
-    <mergeCell ref="AA9:AH9"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA25:AH25"/>
-    <mergeCell ref="AA26:AH26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="AA36:AH36"/>
-    <mergeCell ref="AA37:AH37"/>
-    <mergeCell ref="AA38:AH38"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="AA40:AH40"/>
-    <mergeCell ref="AA41:AH41"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="AA8:AH8"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:AI2"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="AA16:AH16"/>
+    <mergeCell ref="AA17:AH17"/>
+    <mergeCell ref="AA18:AH18"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AA21:AH21"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="98" orientation="landscape" r:id="rId1"/>

--- a/templates/electronicJournal2.xlsx
+++ b/templates/electronicJournal2.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Шаблон" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Шаблон!$A$1:$V$51,Шаблон!$Z$1:$AI$51</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -375,6 +378,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -384,13 +422,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -427,50 +474,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,7 +693,7 @@
   <dimension ref="A1:AN996"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:V2"/>
+      <selection activeCell="AS23" sqref="AS23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -713,47 +716,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
       <c r="W1" s="4"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="54" t="s">
+      <c r="Z1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="57"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="32"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -761,41 +764,41 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
       <c r="W2" s="4"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="59"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -806,44 +809,44 @@
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="60" t="s">
+      <c r="Z3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="33" t="s">
+      <c r="AA3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="62" t="s">
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="39" t="s">
         <v>5</v>
       </c>
       <c r="AJ3" s="1"/>
@@ -853,43 +856,43 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="61"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="37"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -897,40 +900,40 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="30"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="47"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -965,14 +968,14 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="30"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="47"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -1007,14 +1010,14 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="30"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="47"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -1049,14 +1052,14 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="30"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="47"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -1091,14 +1094,14 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="30"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="47"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -1133,14 +1136,14 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="30"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="47"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -1175,14 +1178,14 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="30"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="47"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -1217,14 +1220,14 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="30"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="47"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -1259,14 +1262,14 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="30"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="47"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -1301,14 +1304,14 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="30"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="47"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -1343,14 +1346,14 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="30"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="47"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -1385,14 +1388,14 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="30"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="47"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -1427,14 +1430,14 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="30"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="47"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -1469,14 +1472,14 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="30"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="47"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -1511,14 +1514,14 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="30"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="47"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -1553,14 +1556,14 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="30"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="47"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -1595,14 +1598,14 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="30"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="47"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -1637,14 +1640,14 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="30"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="47"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -1679,14 +1682,14 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="30"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="47"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -1721,14 +1724,14 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="30"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="46"/>
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="47"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -1763,14 +1766,14 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="30"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="47"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -1805,14 +1808,14 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="30"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="47"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -1846,14 +1849,14 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="30"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="46"/>
+      <c r="AG27" s="46"/>
+      <c r="AH27" s="47"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -1888,14 +1891,14 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="30"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="47"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -1930,14 +1933,14 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="30"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="46"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="46"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="47"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -1968,18 +1971,18 @@
       <c r="T30" s="25"/>
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="30"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="47"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -2010,18 +2013,18 @@
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="30"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="47"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -2056,14 +2059,14 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="30"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="47"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -2098,14 +2101,14 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
-      <c r="AF33" s="29"/>
-      <c r="AG33" s="29"/>
-      <c r="AH33" s="30"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="46"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="47"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -2140,14 +2143,14 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="29"/>
-      <c r="AH34" s="30"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="46"/>
+      <c r="AF34" s="46"/>
+      <c r="AG34" s="46"/>
+      <c r="AH34" s="47"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -2182,14 +2185,14 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="29"/>
-      <c r="AF35" s="29"/>
-      <c r="AG35" s="29"/>
-      <c r="AH35" s="30"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="46"/>
+      <c r="AE35" s="46"/>
+      <c r="AF35" s="46"/>
+      <c r="AG35" s="46"/>
+      <c r="AH35" s="47"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -2224,14 +2227,14 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="29"/>
-      <c r="AF36" s="29"/>
-      <c r="AG36" s="29"/>
-      <c r="AH36" s="30"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="46"/>
+      <c r="AF36" s="46"/>
+      <c r="AG36" s="46"/>
+      <c r="AH36" s="47"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -2266,14 +2269,14 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="29"/>
-      <c r="AG37" s="29"/>
-      <c r="AH37" s="30"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="46"/>
+      <c r="AE37" s="46"/>
+      <c r="AF37" s="46"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="47"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -2308,14 +2311,14 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="30"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="46"/>
+      <c r="AD38" s="46"/>
+      <c r="AE38" s="46"/>
+      <c r="AF38" s="46"/>
+      <c r="AG38" s="46"/>
+      <c r="AH38" s="47"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -2350,14 +2353,14 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="30"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AE39" s="46"/>
+      <c r="AF39" s="46"/>
+      <c r="AG39" s="46"/>
+      <c r="AH39" s="47"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -2392,14 +2395,14 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="29"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="30"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="46"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="46"/>
+      <c r="AG40" s="46"/>
+      <c r="AH40" s="47"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -2434,14 +2437,14 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="30"/>
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="46"/>
+      <c r="AC41" s="46"/>
+      <c r="AD41" s="46"/>
+      <c r="AE41" s="46"/>
+      <c r="AF41" s="46"/>
+      <c r="AG41" s="46"/>
+      <c r="AH41" s="47"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -2476,14 +2479,14 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
-      <c r="AF42" s="29"/>
-      <c r="AG42" s="29"/>
-      <c r="AH42" s="30"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="46"/>
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="46"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="46"/>
+      <c r="AH42" s="47"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -2518,14 +2521,14 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
-      <c r="AG43" s="29"/>
-      <c r="AH43" s="30"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="46"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="46"/>
+      <c r="AF43" s="46"/>
+      <c r="AG43" s="46"/>
+      <c r="AH43" s="47"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -2560,14 +2563,14 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
-      <c r="AG44" s="29"/>
-      <c r="AH44" s="30"/>
+      <c r="AA44" s="45"/>
+      <c r="AB44" s="46"/>
+      <c r="AC44" s="46"/>
+      <c r="AD44" s="46"/>
+      <c r="AE44" s="46"/>
+      <c r="AF44" s="46"/>
+      <c r="AG44" s="46"/>
+      <c r="AH44" s="47"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -2602,14 +2605,14 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="11"/>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="45"/>
-      <c r="AC45" s="45"/>
-      <c r="AD45" s="45"/>
-      <c r="AE45" s="45"/>
-      <c r="AF45" s="45"/>
-      <c r="AG45" s="45"/>
-      <c r="AH45" s="46"/>
+      <c r="AA45" s="64"/>
+      <c r="AB45" s="65"/>
+      <c r="AC45" s="65"/>
+      <c r="AD45" s="65"/>
+      <c r="AE45" s="65"/>
+      <c r="AF45" s="65"/>
+      <c r="AG45" s="65"/>
+      <c r="AH45" s="66"/>
       <c r="AI45" s="12"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -2644,14 +2647,14 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="14"/>
-      <c r="AA46" s="47"/>
-      <c r="AB46" s="48"/>
-      <c r="AC46" s="48"/>
-      <c r="AD46" s="48"/>
-      <c r="AE46" s="48"/>
-      <c r="AF46" s="48"/>
-      <c r="AG46" s="48"/>
-      <c r="AH46" s="48"/>
+      <c r="AA46" s="50"/>
+      <c r="AB46" s="51"/>
+      <c r="AC46" s="51"/>
+      <c r="AD46" s="51"/>
+      <c r="AE46" s="51"/>
+      <c r="AF46" s="51"/>
+      <c r="AG46" s="51"/>
+      <c r="AH46" s="51"/>
       <c r="AI46" s="15"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -2686,14 +2689,14 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="13"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="32"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="32"/>
+      <c r="AA47" s="43"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="44"/>
+      <c r="AF47" s="44"/>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="44"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -2727,16 +2730,16 @@
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AE48" s="50"/>
-      <c r="AF48" s="50"/>
-      <c r="AG48" s="50"/>
-      <c r="AH48" s="50"/>
-      <c r="AI48" s="50"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AE48" s="53"/>
+      <c r="AF48" s="53"/>
+      <c r="AG48" s="53"/>
+      <c r="AH48" s="53"/>
+      <c r="AI48" s="53"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
@@ -2769,26 +2772,26 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="39" t="s">
+      <c r="Z49" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AA49" s="40"/>
-      <c r="AB49" s="43" t="s">
+      <c r="AA49" s="60"/>
+      <c r="AB49" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AC49" s="40"/>
-      <c r="AD49" s="39" t="s">
+      <c r="AC49" s="60"/>
+      <c r="AD49" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AE49" s="40"/>
-      <c r="AF49" s="39" t="s">
+      <c r="AE49" s="60"/>
+      <c r="AF49" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AG49" s="40"/>
-      <c r="AH49" s="33" t="s">
+      <c r="AG49" s="60"/>
+      <c r="AH49" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AI49" s="34"/>
+      <c r="AI49" s="54"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -2821,16 +2824,16 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="41"/>
-      <c r="AA50" s="42"/>
-      <c r="AB50" s="41"/>
-      <c r="AC50" s="42"/>
-      <c r="AD50" s="41"/>
-      <c r="AE50" s="42"/>
-      <c r="AF50" s="41"/>
-      <c r="AG50" s="42"/>
-      <c r="AH50" s="35"/>
-      <c r="AI50" s="36"/>
+      <c r="Z50" s="61"/>
+      <c r="AA50" s="62"/>
+      <c r="AB50" s="61"/>
+      <c r="AC50" s="62"/>
+      <c r="AD50" s="61"/>
+      <c r="AE50" s="62"/>
+      <c r="AF50" s="61"/>
+      <c r="AG50" s="62"/>
+      <c r="AH50" s="55"/>
+      <c r="AI50" s="56"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
@@ -2863,16 +2866,16 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="37"/>
-      <c r="AA51" s="38"/>
-      <c r="AB51" s="37"/>
-      <c r="AC51" s="38"/>
-      <c r="AD51" s="37"/>
-      <c r="AE51" s="38"/>
-      <c r="AF51" s="37"/>
-      <c r="AG51" s="38"/>
-      <c r="AH51" s="37"/>
-      <c r="AI51" s="38"/>
+      <c r="Z51" s="57"/>
+      <c r="AA51" s="58"/>
+      <c r="AB51" s="57"/>
+      <c r="AC51" s="58"/>
+      <c r="AD51" s="57"/>
+      <c r="AE51" s="58"/>
+      <c r="AF51" s="57"/>
+      <c r="AG51" s="58"/>
+      <c r="AH51" s="57"/>
+      <c r="AI51" s="58"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -7270,6 +7273,77 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AA21:AH21"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="AA16:AH16"/>
+    <mergeCell ref="AA17:AH17"/>
+    <mergeCell ref="AA18:AH18"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AH49:AI50"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AA28:AH28"/>
+    <mergeCell ref="AA29:AH29"/>
+    <mergeCell ref="AA30:AH30"/>
+    <mergeCell ref="AA31:AH31"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="Z49:AA50"/>
+    <mergeCell ref="AB49:AC50"/>
+    <mergeCell ref="AD49:AE50"/>
+    <mergeCell ref="AF49:AG50"/>
+    <mergeCell ref="AA44:AH44"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="AA46:AH46"/>
+    <mergeCell ref="AA47:AH47"/>
+    <mergeCell ref="Z48:AI48"/>
+    <mergeCell ref="AA32:AH32"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="AA34:AH34"/>
+    <mergeCell ref="AA35:AH35"/>
+    <mergeCell ref="AA43:AH43"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AA25:AH25"/>
+    <mergeCell ref="AA26:AH26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="AA36:AH36"/>
+    <mergeCell ref="AA37:AH37"/>
+    <mergeCell ref="AA38:AH38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AA40:AH40"/>
+    <mergeCell ref="AA41:AH41"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="Z1:AI2"/>
     <mergeCell ref="Z3:Z4"/>
@@ -7286,79 +7360,9 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="AA8:AH8"/>
-    <mergeCell ref="AA9:AH9"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA25:AH25"/>
-    <mergeCell ref="AA26:AH26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="AA36:AH36"/>
-    <mergeCell ref="AA37:AH37"/>
-    <mergeCell ref="AA38:AH38"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="AA40:AH40"/>
-    <mergeCell ref="AA41:AH41"/>
-    <mergeCell ref="AA46:AH46"/>
-    <mergeCell ref="AA47:AH47"/>
-    <mergeCell ref="Z48:AI48"/>
-    <mergeCell ref="AA32:AH32"/>
-    <mergeCell ref="AA33:AH33"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="AA35:AH35"/>
-    <mergeCell ref="AA43:AH43"/>
-    <mergeCell ref="AH49:AI50"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AA28:AH28"/>
-    <mergeCell ref="AA29:AH29"/>
-    <mergeCell ref="AA30:AH30"/>
-    <mergeCell ref="AA31:AH31"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="Z49:AA50"/>
-    <mergeCell ref="AB49:AC50"/>
-    <mergeCell ref="AD49:AE50"/>
-    <mergeCell ref="AF49:AG50"/>
-    <mergeCell ref="AA44:AH44"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="AA16:AH16"/>
-    <mergeCell ref="AA17:AH17"/>
-    <mergeCell ref="AA18:AH18"/>
-    <mergeCell ref="AA19:AH19"/>
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="98" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/electronicJournal2.xlsx
+++ b/templates/electronicJournal2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Группа: </t>
   </si>
@@ -58,11 +58,8 @@
     <t>№ приказа о завершении группы</t>
   </si>
   <si>
-    <t>Дата (дд)
+    <t>Дата
 Фамилия и инициалы</t>
-  </si>
-  <si>
-    <t>Месяц (мм)</t>
   </si>
 </sst>
 </file>
@@ -378,41 +375,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -422,22 +384,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -474,6 +427,50 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,7 +690,7 @@
   <dimension ref="A1:AN996"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AS23" sqref="AS23"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -716,47 +713,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
       <c r="W1" s="4"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="32"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="59"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -764,41 +761,41 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
       <c r="W2" s="4"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="62"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -806,47 +803,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="36" t="s">
+      <c r="Z3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="38" t="s">
+      <c r="AA3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="39" t="s">
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="65" t="s">
         <v>5</v>
       </c>
       <c r="AJ3" s="1"/>
@@ -856,43 +851,43 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="37"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="64"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -900,40 +895,40 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="47"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="30"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -968,14 +963,14 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="47"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="30"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -1010,14 +1005,14 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="47"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="30"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -1052,14 +1047,14 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="47"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="30"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -1094,14 +1089,14 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="47"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="30"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -1136,14 +1131,14 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="47"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="30"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -1178,14 +1173,14 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="47"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="30"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -1220,14 +1215,14 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="47"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="30"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -1262,14 +1257,14 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="47"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="30"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -1304,14 +1299,14 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="47"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="30"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -1346,14 +1341,14 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="47"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="30"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -1388,14 +1383,14 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="47"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="30"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -1430,14 +1425,14 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="47"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="30"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -1472,14 +1467,14 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="47"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="30"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -1514,14 +1509,14 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="47"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="30"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -1556,14 +1551,14 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="47"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="30"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -1598,14 +1593,14 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="47"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="30"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -1640,14 +1635,14 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="47"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="30"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -1682,14 +1677,14 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="47"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="30"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -1724,14 +1719,14 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="46"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="47"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="30"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -1766,14 +1761,14 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="46"/>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="47"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="30"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -1808,14 +1803,14 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="47"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="30"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -1849,14 +1844,14 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="47"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="30"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -1891,14 +1886,14 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="47"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="30"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -1933,14 +1928,14 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="46"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="47"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="30"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -1971,18 +1966,18 @@
       <c r="T30" s="25"/>
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="47"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="30"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -2013,18 +2008,18 @@
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="47"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="30"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -2059,14 +2054,14 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="46"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="47"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="30"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -2101,14 +2096,14 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="47"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="30"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -2143,14 +2138,14 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="46"/>
-      <c r="AF34" s="46"/>
-      <c r="AG34" s="46"/>
-      <c r="AH34" s="47"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="30"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -2185,14 +2180,14 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="46"/>
-      <c r="AF35" s="46"/>
-      <c r="AG35" s="46"/>
-      <c r="AH35" s="47"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="30"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -2227,14 +2222,14 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="46"/>
-      <c r="AE36" s="46"/>
-      <c r="AF36" s="46"/>
-      <c r="AG36" s="46"/>
-      <c r="AH36" s="47"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="30"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -2269,14 +2264,14 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="46"/>
-      <c r="AE37" s="46"/>
-      <c r="AF37" s="46"/>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="47"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="30"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -2311,14 +2306,14 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="46"/>
-      <c r="AE38" s="46"/>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="46"/>
-      <c r="AH38" s="47"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="30"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -2353,14 +2348,14 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="46"/>
-      <c r="AE39" s="46"/>
-      <c r="AF39" s="46"/>
-      <c r="AG39" s="46"/>
-      <c r="AH39" s="47"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="30"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -2395,14 +2390,14 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="46"/>
-      <c r="AC40" s="46"/>
-      <c r="AD40" s="46"/>
-      <c r="AE40" s="46"/>
-      <c r="AF40" s="46"/>
-      <c r="AG40" s="46"/>
-      <c r="AH40" s="47"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="30"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -2437,14 +2432,14 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="46"/>
-      <c r="AC41" s="46"/>
-      <c r="AD41" s="46"/>
-      <c r="AE41" s="46"/>
-      <c r="AF41" s="46"/>
-      <c r="AG41" s="46"/>
-      <c r="AH41" s="47"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="30"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -2479,14 +2474,14 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="46"/>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="46"/>
-      <c r="AF42" s="46"/>
-      <c r="AG42" s="46"/>
-      <c r="AH42" s="47"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="29"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="30"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -2521,14 +2516,14 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="45"/>
-      <c r="AB43" s="46"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="46"/>
-      <c r="AE43" s="46"/>
-      <c r="AF43" s="46"/>
-      <c r="AG43" s="46"/>
-      <c r="AH43" s="47"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="30"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -2563,14 +2558,14 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="46"/>
-      <c r="AD44" s="46"/>
-      <c r="AE44" s="46"/>
-      <c r="AF44" s="46"/>
-      <c r="AG44" s="46"/>
-      <c r="AH44" s="47"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="30"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -2605,14 +2600,14 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="11"/>
-      <c r="AA45" s="64"/>
-      <c r="AB45" s="65"/>
-      <c r="AC45" s="65"/>
-      <c r="AD45" s="65"/>
-      <c r="AE45" s="65"/>
-      <c r="AF45" s="65"/>
-      <c r="AG45" s="65"/>
-      <c r="AH45" s="66"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="45"/>
+      <c r="AC45" s="45"/>
+      <c r="AD45" s="45"/>
+      <c r="AE45" s="45"/>
+      <c r="AF45" s="45"/>
+      <c r="AG45" s="45"/>
+      <c r="AH45" s="46"/>
       <c r="AI45" s="12"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -2647,14 +2642,14 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="14"/>
-      <c r="AA46" s="50"/>
-      <c r="AB46" s="51"/>
-      <c r="AC46" s="51"/>
-      <c r="AD46" s="51"/>
-      <c r="AE46" s="51"/>
-      <c r="AF46" s="51"/>
-      <c r="AG46" s="51"/>
-      <c r="AH46" s="51"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="48"/>
+      <c r="AC46" s="48"/>
+      <c r="AD46" s="48"/>
+      <c r="AE46" s="48"/>
+      <c r="AF46" s="48"/>
+      <c r="AG46" s="48"/>
+      <c r="AH46" s="48"/>
       <c r="AI46" s="15"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -2689,14 +2684,14 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="13"/>
-      <c r="AA47" s="43"/>
-      <c r="AB47" s="44"/>
-      <c r="AC47" s="44"/>
-      <c r="AD47" s="44"/>
-      <c r="AE47" s="44"/>
-      <c r="AF47" s="44"/>
-      <c r="AG47" s="44"/>
-      <c r="AH47" s="44"/>
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -2730,16 +2725,16 @@
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AE48" s="53"/>
-      <c r="AF48" s="53"/>
-      <c r="AG48" s="53"/>
-      <c r="AH48" s="53"/>
-      <c r="AI48" s="53"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="50"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
@@ -2772,26 +2767,26 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="59" t="s">
+      <c r="Z49" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AA49" s="60"/>
-      <c r="AB49" s="63" t="s">
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AC49" s="60"/>
-      <c r="AD49" s="59" t="s">
+      <c r="AC49" s="40"/>
+      <c r="AD49" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AE49" s="60"/>
-      <c r="AF49" s="59" t="s">
+      <c r="AE49" s="40"/>
+      <c r="AF49" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AG49" s="60"/>
-      <c r="AH49" s="38" t="s">
+      <c r="AG49" s="40"/>
+      <c r="AH49" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AI49" s="54"/>
+      <c r="AI49" s="34"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -2824,16 +2819,16 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="61"/>
-      <c r="AA50" s="62"/>
-      <c r="AB50" s="61"/>
-      <c r="AC50" s="62"/>
-      <c r="AD50" s="61"/>
-      <c r="AE50" s="62"/>
-      <c r="AF50" s="61"/>
-      <c r="AG50" s="62"/>
-      <c r="AH50" s="55"/>
-      <c r="AI50" s="56"/>
+      <c r="Z50" s="41"/>
+      <c r="AA50" s="42"/>
+      <c r="AB50" s="41"/>
+      <c r="AC50" s="42"/>
+      <c r="AD50" s="41"/>
+      <c r="AE50" s="42"/>
+      <c r="AF50" s="41"/>
+      <c r="AG50" s="42"/>
+      <c r="AH50" s="35"/>
+      <c r="AI50" s="36"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
@@ -2866,16 +2861,16 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="57"/>
-      <c r="AA51" s="58"/>
-      <c r="AB51" s="57"/>
-      <c r="AC51" s="58"/>
-      <c r="AD51" s="57"/>
-      <c r="AE51" s="58"/>
-      <c r="AF51" s="57"/>
-      <c r="AG51" s="58"/>
-      <c r="AH51" s="57"/>
-      <c r="AI51" s="58"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="38"/>
+      <c r="AB51" s="37"/>
+      <c r="AC51" s="38"/>
+      <c r="AD51" s="37"/>
+      <c r="AE51" s="38"/>
+      <c r="AF51" s="37"/>
+      <c r="AG51" s="38"/>
+      <c r="AH51" s="37"/>
+      <c r="AI51" s="38"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -7273,16 +7268,67 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="AA16:AH16"/>
-    <mergeCell ref="AA17:AH17"/>
-    <mergeCell ref="AA18:AH18"/>
-    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:AI2"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AA25:AH25"/>
+    <mergeCell ref="AA26:AH26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="AA36:AH36"/>
+    <mergeCell ref="AA37:AH37"/>
+    <mergeCell ref="AA38:AH38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AA40:AH40"/>
+    <mergeCell ref="AA41:AH41"/>
+    <mergeCell ref="AA46:AH46"/>
+    <mergeCell ref="AA47:AH47"/>
+    <mergeCell ref="Z48:AI48"/>
+    <mergeCell ref="AA32:AH32"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="AA34:AH34"/>
+    <mergeCell ref="AA35:AH35"/>
+    <mergeCell ref="AA43:AH43"/>
     <mergeCell ref="AH49:AI50"/>
     <mergeCell ref="Z51:AA51"/>
     <mergeCell ref="AB51:AC51"/>
@@ -7299,70 +7345,19 @@
     <mergeCell ref="AF49:AG50"/>
     <mergeCell ref="AA44:AH44"/>
     <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA46:AH46"/>
-    <mergeCell ref="AA47:AH47"/>
-    <mergeCell ref="Z48:AI48"/>
-    <mergeCell ref="AA32:AH32"/>
-    <mergeCell ref="AA33:AH33"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="AA35:AH35"/>
-    <mergeCell ref="AA43:AH43"/>
-    <mergeCell ref="AA9:AH9"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA25:AH25"/>
-    <mergeCell ref="AA26:AH26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="AA36:AH36"/>
-    <mergeCell ref="AA37:AH37"/>
-    <mergeCell ref="AA38:AH38"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="AA40:AH40"/>
-    <mergeCell ref="AA41:AH41"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="AA8:AH8"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:AI2"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="AA16:AH16"/>
+    <mergeCell ref="AA17:AH17"/>
+    <mergeCell ref="AA18:AH18"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AA21:AH21"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0" footer="0"/>
+  <pageMargins left="9.8425196850393706E-2" right="9.8425196850393706E-2" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/electronicJournal2.xlsx
+++ b/templates/electronicJournal2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Группа: </t>
   </si>
@@ -58,8 +58,10 @@
     <t>№ приказа о завершении группы</t>
   </si>
   <si>
-    <t>Дата
-Фамилия и инициалы</t>
+    <t>Фамилия и инициалы</t>
+  </si>
+  <si>
+    <t>Дата</t>
   </si>
 </sst>
 </file>
@@ -314,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -331,9 +333,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -375,6 +374,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -384,13 +415,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -428,49 +468,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,7 +695,7 @@
   <dimension ref="A1:AN996"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -713,47 +718,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
       <c r="W1" s="4"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="57" t="s">
+      <c r="Z1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="59"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="31"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -761,41 +766,41 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
       <c r="W2" s="4"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="62"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="34"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -803,45 +808,47 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
+      <c r="A3" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="63" t="s">
+      <c r="Z3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="33" t="s">
+      <c r="AA3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="65" t="s">
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="38" t="s">
         <v>5</v>
       </c>
       <c r="AJ3" s="1"/>
@@ -851,43 +858,43 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="64"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="36"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -895,40 +902,40 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="30"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="45"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -937,40 +944,40 @@
       <c r="AN5" s="1"/>
     </row>
     <row r="6" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="30"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="45"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -979,40 +986,40 @@
       <c r="AN6" s="1"/>
     </row>
     <row r="7" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="30"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="45"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -1021,40 +1028,40 @@
       <c r="AN7" s="1"/>
     </row>
     <row r="8" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="30"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="45"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -1063,40 +1070,40 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="30"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="45"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -1105,40 +1112,40 @@
       <c r="AN9" s="1"/>
     </row>
     <row r="10" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="30"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="45"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -1147,40 +1154,40 @@
       <c r="AN10" s="1"/>
     </row>
     <row r="11" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="30"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="45"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -1189,40 +1196,40 @@
       <c r="AN11" s="1"/>
     </row>
     <row r="12" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="30"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="45"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -1231,40 +1238,40 @@
       <c r="AN12" s="1"/>
     </row>
     <row r="13" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="30"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="45"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -1273,40 +1280,40 @@
       <c r="AN13" s="1"/>
     </row>
     <row r="14" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="30"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="45"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -1315,40 +1322,40 @@
       <c r="AN14" s="1"/>
     </row>
     <row r="15" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="30"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="45"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -1357,40 +1364,40 @@
       <c r="AN15" s="1"/>
     </row>
     <row r="16" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="30"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="45"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -1399,40 +1406,40 @@
       <c r="AN16" s="1"/>
     </row>
     <row r="17" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="30"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="45"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -1441,40 +1448,40 @@
       <c r="AN17" s="1"/>
     </row>
     <row r="18" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="30"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="45"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -1483,40 +1490,40 @@
       <c r="AN18" s="1"/>
     </row>
     <row r="19" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="30"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="45"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -1525,40 +1532,40 @@
       <c r="AN19" s="1"/>
     </row>
     <row r="20" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="30"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="45"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -1567,40 +1574,40 @@
       <c r="AN20" s="1"/>
     </row>
     <row r="21" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="30"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="45"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -1609,40 +1616,40 @@
       <c r="AN21" s="1"/>
     </row>
     <row r="22" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="30"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="45"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -1651,40 +1658,40 @@
       <c r="AN22" s="1"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="30"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="45"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -1693,40 +1700,40 @@
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="30"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="45"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -1735,40 +1742,40 @@
       <c r="AN24" s="1"/>
     </row>
     <row r="25" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="30"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="45"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -1777,40 +1784,40 @@
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="30"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="45"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -1819,39 +1826,39 @@
       <c r="AN26" s="1"/>
     </row>
     <row r="27" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="30"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="45"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -1860,40 +1867,40 @@
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="30"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="45"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -1902,40 +1909,40 @@
       <c r="AN28" s="1"/>
     </row>
     <row r="29" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="30"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="45"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -1944,40 +1951,40 @@
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="30"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="45"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -1986,40 +1993,40 @@
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="30"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="45"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -2028,40 +2035,40 @@
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="30"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="45"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -2070,40 +2077,40 @@
       <c r="AN32" s="1"/>
     </row>
     <row r="33" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
-      <c r="AF33" s="29"/>
-      <c r="AG33" s="29"/>
-      <c r="AH33" s="30"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="45"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -2112,40 +2119,40 @@
       <c r="AN33" s="1"/>
     </row>
     <row r="34" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="29"/>
-      <c r="AH34" s="30"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="45"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -2154,40 +2161,40 @@
       <c r="AN34" s="1"/>
     </row>
     <row r="35" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="29"/>
-      <c r="AF35" s="29"/>
-      <c r="AG35" s="29"/>
-      <c r="AH35" s="30"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="45"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -2196,40 +2203,40 @@
       <c r="AN35" s="1"/>
     </row>
     <row r="36" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="29"/>
-      <c r="AF36" s="29"/>
-      <c r="AG36" s="29"/>
-      <c r="AH36" s="30"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="45"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -2238,40 +2245,40 @@
       <c r="AN36" s="1"/>
     </row>
     <row r="37" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="29"/>
-      <c r="AG37" s="29"/>
-      <c r="AH37" s="30"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="45"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -2280,40 +2287,40 @@
       <c r="AN37" s="1"/>
     </row>
     <row r="38" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="30"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="45"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -2322,40 +2329,40 @@
       <c r="AN38" s="1"/>
     </row>
     <row r="39" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="30"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="45"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -2364,40 +2371,40 @@
       <c r="AN39" s="1"/>
     </row>
     <row r="40" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="29"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="30"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="44"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="45"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -2406,40 +2413,40 @@
       <c r="AN40" s="1"/>
     </row>
     <row r="41" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="30"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="44"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="45"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -2448,40 +2455,40 @@
       <c r="AN41" s="1"/>
     </row>
     <row r="42" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
-      <c r="AF42" s="29"/>
-      <c r="AG42" s="29"/>
-      <c r="AH42" s="30"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="44"/>
+      <c r="AC42" s="44"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="45"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -2490,40 +2497,40 @@
       <c r="AN42" s="1"/>
     </row>
     <row r="43" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
-      <c r="AG43" s="29"/>
-      <c r="AH43" s="30"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="45"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -2532,40 +2539,40 @@
       <c r="AN43" s="1"/>
     </row>
     <row r="44" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
-      <c r="AG44" s="29"/>
-      <c r="AH44" s="30"/>
+      <c r="AA44" s="43"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="45"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -2574,41 +2581,41 @@
       <c r="AN44" s="1"/>
     </row>
     <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="1"/>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="45"/>
-      <c r="AC45" s="45"/>
-      <c r="AD45" s="45"/>
-      <c r="AE45" s="45"/>
-      <c r="AF45" s="45"/>
-      <c r="AG45" s="45"/>
-      <c r="AH45" s="46"/>
-      <c r="AI45" s="12"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="62"/>
+      <c r="AB45" s="63"/>
+      <c r="AC45" s="63"/>
+      <c r="AD45" s="63"/>
+      <c r="AE45" s="63"/>
+      <c r="AF45" s="63"/>
+      <c r="AG45" s="63"/>
+      <c r="AH45" s="64"/>
+      <c r="AI45" s="11"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1"/>
@@ -2616,41 +2623,41 @@
       <c r="AN45" s="1"/>
     </row>
     <row r="46" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="1"/>
-      <c r="Z46" s="14"/>
-      <c r="AA46" s="47"/>
-      <c r="AB46" s="48"/>
-      <c r="AC46" s="48"/>
-      <c r="AD46" s="48"/>
-      <c r="AE46" s="48"/>
-      <c r="AF46" s="48"/>
-      <c r="AG46" s="48"/>
-      <c r="AH46" s="48"/>
-      <c r="AI46" s="15"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="48"/>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="49"/>
+      <c r="AD46" s="49"/>
+      <c r="AE46" s="49"/>
+      <c r="AF46" s="49"/>
+      <c r="AG46" s="49"/>
+      <c r="AH46" s="49"/>
+      <c r="AI46" s="14"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
@@ -2658,40 +2665,40 @@
       <c r="AN46" s="1"/>
     </row>
     <row r="47" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="1"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="32"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="32"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="41"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42"/>
+      <c r="AE47" s="42"/>
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="42"/>
+      <c r="AH47" s="42"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -2700,41 +2707,41 @@
       <c r="AN47" s="1"/>
     </row>
     <row r="48" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AE48" s="50"/>
-      <c r="AF48" s="50"/>
-      <c r="AG48" s="50"/>
-      <c r="AH48" s="50"/>
-      <c r="AI48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51"/>
+      <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="51"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
@@ -2742,51 +2749,51 @@
       <c r="AN48" s="1"/>
     </row>
     <row r="49" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="39" t="s">
+      <c r="Z49" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AA49" s="40"/>
-      <c r="AB49" s="43" t="s">
+      <c r="AA49" s="58"/>
+      <c r="AB49" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="AC49" s="40"/>
-      <c r="AD49" s="39" t="s">
+      <c r="AC49" s="58"/>
+      <c r="AD49" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AE49" s="40"/>
-      <c r="AF49" s="39" t="s">
+      <c r="AE49" s="58"/>
+      <c r="AF49" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AG49" s="40"/>
-      <c r="AH49" s="33" t="s">
+      <c r="AG49" s="58"/>
+      <c r="AH49" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AI49" s="34"/>
+      <c r="AI49" s="52"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -2794,41 +2801,41 @@
       <c r="AN49" s="1"/>
     </row>
     <row r="50" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="41"/>
-      <c r="AA50" s="42"/>
-      <c r="AB50" s="41"/>
-      <c r="AC50" s="42"/>
-      <c r="AD50" s="41"/>
-      <c r="AE50" s="42"/>
-      <c r="AF50" s="41"/>
-      <c r="AG50" s="42"/>
-      <c r="AH50" s="35"/>
-      <c r="AI50" s="36"/>
+      <c r="Z50" s="59"/>
+      <c r="AA50" s="60"/>
+      <c r="AB50" s="59"/>
+      <c r="AC50" s="60"/>
+      <c r="AD50" s="59"/>
+      <c r="AE50" s="60"/>
+      <c r="AF50" s="59"/>
+      <c r="AG50" s="60"/>
+      <c r="AH50" s="53"/>
+      <c r="AI50" s="54"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
@@ -2836,41 +2843,41 @@
       <c r="AN50" s="1"/>
     </row>
     <row r="51" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="37"/>
-      <c r="AA51" s="38"/>
-      <c r="AB51" s="37"/>
-      <c r="AC51" s="38"/>
-      <c r="AD51" s="37"/>
-      <c r="AE51" s="38"/>
-      <c r="AF51" s="37"/>
-      <c r="AG51" s="38"/>
-      <c r="AH51" s="37"/>
-      <c r="AI51" s="38"/>
+      <c r="Z51" s="55"/>
+      <c r="AA51" s="56"/>
+      <c r="AB51" s="55"/>
+      <c r="AC51" s="56"/>
+      <c r="AD51" s="55"/>
+      <c r="AE51" s="56"/>
+      <c r="AF51" s="55"/>
+      <c r="AG51" s="56"/>
+      <c r="AH51" s="55"/>
+      <c r="AI51" s="56"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -7268,6 +7275,77 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AA21:AH21"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="AA16:AH16"/>
+    <mergeCell ref="AA17:AH17"/>
+    <mergeCell ref="AA18:AH18"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AH49:AI50"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AA28:AH28"/>
+    <mergeCell ref="AA29:AH29"/>
+    <mergeCell ref="AA30:AH30"/>
+    <mergeCell ref="AA31:AH31"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="Z49:AA50"/>
+    <mergeCell ref="AB49:AC50"/>
+    <mergeCell ref="AD49:AE50"/>
+    <mergeCell ref="AF49:AG50"/>
+    <mergeCell ref="AA44:AH44"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="AA46:AH46"/>
+    <mergeCell ref="AA47:AH47"/>
+    <mergeCell ref="Z48:AI48"/>
+    <mergeCell ref="AA32:AH32"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="AA34:AH34"/>
+    <mergeCell ref="AA35:AH35"/>
+    <mergeCell ref="AA43:AH43"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AA25:AH25"/>
+    <mergeCell ref="AA26:AH26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="AA36:AH36"/>
+    <mergeCell ref="AA37:AH37"/>
+    <mergeCell ref="AA38:AH38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AA40:AH40"/>
+    <mergeCell ref="AA41:AH41"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="Z1:AI2"/>
     <mergeCell ref="Z3:Z4"/>
@@ -7284,77 +7362,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="AA8:AH8"/>
-    <mergeCell ref="AA9:AH9"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA25:AH25"/>
-    <mergeCell ref="AA26:AH26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="AA36:AH36"/>
-    <mergeCell ref="AA37:AH37"/>
-    <mergeCell ref="AA38:AH38"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="AA40:AH40"/>
-    <mergeCell ref="AA41:AH41"/>
-    <mergeCell ref="AA46:AH46"/>
-    <mergeCell ref="AA47:AH47"/>
-    <mergeCell ref="Z48:AI48"/>
-    <mergeCell ref="AA32:AH32"/>
-    <mergeCell ref="AA33:AH33"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="AA35:AH35"/>
-    <mergeCell ref="AA43:AH43"/>
-    <mergeCell ref="AH49:AI50"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AA28:AH28"/>
-    <mergeCell ref="AA29:AH29"/>
-    <mergeCell ref="AA30:AH30"/>
-    <mergeCell ref="AA31:AH31"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="Z49:AA50"/>
-    <mergeCell ref="AB49:AC50"/>
-    <mergeCell ref="AD49:AE50"/>
-    <mergeCell ref="AF49:AG50"/>
-    <mergeCell ref="AA44:AH44"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="AA16:AH16"/>
-    <mergeCell ref="AA17:AH17"/>
-    <mergeCell ref="AA18:AH18"/>
-    <mergeCell ref="AA19:AH19"/>
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="9.8425196850393706E-2" right="9.8425196850393706E-2" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0" footer="0"/>

--- a/templates/electronicJournal2.xlsx
+++ b/templates/electronicJournal2.xlsx
@@ -374,38 +374,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -415,22 +383,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +427,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,47 +718,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
       <c r="W1" s="4"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="31"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="58"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -766,41 +766,41 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
       <c r="W2" s="4"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="34"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="61"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -811,44 +811,44 @@
       <c r="A3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="35" t="s">
+      <c r="Z3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="37" t="s">
+      <c r="AA3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="38" t="s">
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="64" t="s">
         <v>5</v>
       </c>
       <c r="AJ3" s="1"/>
@@ -861,40 +861,40 @@
       <c r="A4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="36"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="63"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -903,39 +903,39 @@
     </row>
     <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="45"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="29"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -970,14 +970,14 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="45"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="29"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -1012,14 +1012,14 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="45"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="29"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -1054,14 +1054,14 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="45"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="29"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -1096,14 +1096,14 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="45"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="29"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -1138,14 +1138,14 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="45"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="29"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -1180,14 +1180,14 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="45"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="29"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -1222,14 +1222,14 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="45"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="29"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -1264,14 +1264,14 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="45"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="29"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -1306,14 +1306,14 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="45"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="29"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -1348,14 +1348,14 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="45"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="29"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -1390,14 +1390,14 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="45"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="29"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -1432,14 +1432,14 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="45"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="29"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -1474,14 +1474,14 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="45"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="29"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -1516,14 +1516,14 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="45"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="29"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -1558,14 +1558,14 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="45"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="29"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -1600,14 +1600,14 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="45"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="29"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -1642,14 +1642,14 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="45"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="29"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -1684,14 +1684,14 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="45"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="29"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -1726,14 +1726,14 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="45"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="29"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -1768,14 +1768,14 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="44"/>
-      <c r="AH25" s="45"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="29"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -1810,14 +1810,14 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="45"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="29"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -1851,14 +1851,14 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="45"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="29"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -1893,14 +1893,14 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="45"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="29"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -1935,14 +1935,14 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="45"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="29"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -1973,18 +1973,18 @@
       <c r="T30" s="24"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="44"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="44"/>
-      <c r="AF30" s="44"/>
-      <c r="AG30" s="44"/>
-      <c r="AH30" s="45"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="29"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -2015,18 +2015,18 @@
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
       <c r="V31" s="26"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="45"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="29"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -2061,14 +2061,14 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="45"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="29"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -2103,14 +2103,14 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="44"/>
-      <c r="AG33" s="44"/>
-      <c r="AH33" s="45"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="29"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -2145,14 +2145,14 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="43"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="44"/>
-      <c r="AG34" s="44"/>
-      <c r="AH34" s="45"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="29"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -2187,14 +2187,14 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="43"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="44"/>
-      <c r="AD35" s="44"/>
-      <c r="AE35" s="44"/>
-      <c r="AF35" s="44"/>
-      <c r="AG35" s="44"/>
-      <c r="AH35" s="45"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="29"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -2229,14 +2229,14 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="44"/>
-      <c r="AC36" s="44"/>
-      <c r="AD36" s="44"/>
-      <c r="AE36" s="44"/>
-      <c r="AF36" s="44"/>
-      <c r="AG36" s="44"/>
-      <c r="AH36" s="45"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="29"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -2271,14 +2271,14 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="43"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="44"/>
-      <c r="AD37" s="44"/>
-      <c r="AE37" s="44"/>
-      <c r="AF37" s="44"/>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="45"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="29"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -2313,14 +2313,14 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="44"/>
-      <c r="AF38" s="44"/>
-      <c r="AG38" s="44"/>
-      <c r="AH38" s="45"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="29"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -2355,14 +2355,14 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="44"/>
-      <c r="AF39" s="44"/>
-      <c r="AG39" s="44"/>
-      <c r="AH39" s="45"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="29"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -2397,14 +2397,14 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="44"/>
-      <c r="AC40" s="44"/>
-      <c r="AD40" s="44"/>
-      <c r="AE40" s="44"/>
-      <c r="AF40" s="44"/>
-      <c r="AG40" s="44"/>
-      <c r="AH40" s="45"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="29"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -2439,14 +2439,14 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="44"/>
-      <c r="AF41" s="44"/>
-      <c r="AG41" s="44"/>
-      <c r="AH41" s="45"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="29"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -2481,14 +2481,14 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="44"/>
-      <c r="AC42" s="44"/>
-      <c r="AD42" s="44"/>
-      <c r="AE42" s="44"/>
-      <c r="AF42" s="44"/>
-      <c r="AG42" s="44"/>
-      <c r="AH42" s="45"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="29"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -2523,14 +2523,14 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="43"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="44"/>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="44"/>
-      <c r="AH43" s="45"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="29"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -2565,14 +2565,14 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="43"/>
-      <c r="AB44" s="44"/>
-      <c r="AC44" s="44"/>
-      <c r="AD44" s="44"/>
-      <c r="AE44" s="44"/>
-      <c r="AF44" s="44"/>
-      <c r="AG44" s="44"/>
-      <c r="AH44" s="45"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="28"/>
+      <c r="AH44" s="29"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -2607,14 +2607,14 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="10"/>
-      <c r="AA45" s="62"/>
-      <c r="AB45" s="63"/>
-      <c r="AC45" s="63"/>
-      <c r="AD45" s="63"/>
-      <c r="AE45" s="63"/>
-      <c r="AF45" s="63"/>
-      <c r="AG45" s="63"/>
-      <c r="AH45" s="64"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="44"/>
+      <c r="AG45" s="44"/>
+      <c r="AH45" s="45"/>
       <c r="AI45" s="11"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -2649,14 +2649,14 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="13"/>
-      <c r="AA46" s="48"/>
-      <c r="AB46" s="49"/>
-      <c r="AC46" s="49"/>
-      <c r="AD46" s="49"/>
-      <c r="AE46" s="49"/>
-      <c r="AF46" s="49"/>
-      <c r="AG46" s="49"/>
-      <c r="AH46" s="49"/>
+      <c r="AA46" s="46"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="47"/>
+      <c r="AE46" s="47"/>
+      <c r="AF46" s="47"/>
+      <c r="AG46" s="47"/>
+      <c r="AH46" s="47"/>
       <c r="AI46" s="14"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -2691,14 +2691,14 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="12"/>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="42"/>
-      <c r="AC47" s="42"/>
-      <c r="AD47" s="42"/>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="31"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="31"/>
+      <c r="AE47" s="31"/>
+      <c r="AF47" s="31"/>
+      <c r="AG47" s="31"/>
+      <c r="AH47" s="31"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -2732,16 +2732,16 @@
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AE48" s="51"/>
-      <c r="AF48" s="51"/>
-      <c r="AG48" s="51"/>
-      <c r="AH48" s="51"/>
-      <c r="AI48" s="51"/>
+      <c r="Z48" s="48"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AE48" s="49"/>
+      <c r="AF48" s="49"/>
+      <c r="AG48" s="49"/>
+      <c r="AH48" s="49"/>
+      <c r="AI48" s="49"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
@@ -2774,26 +2774,26 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="57" t="s">
+      <c r="Z49" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AA49" s="58"/>
-      <c r="AB49" s="61" t="s">
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AC49" s="58"/>
-      <c r="AD49" s="57" t="s">
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="AE49" s="58"/>
-      <c r="AF49" s="57" t="s">
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AG49" s="58"/>
-      <c r="AH49" s="37" t="s">
+      <c r="AG49" s="39"/>
+      <c r="AH49" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AI49" s="52"/>
+      <c r="AI49" s="33"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -2826,16 +2826,16 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="59"/>
-      <c r="AA50" s="60"/>
-      <c r="AB50" s="59"/>
-      <c r="AC50" s="60"/>
-      <c r="AD50" s="59"/>
-      <c r="AE50" s="60"/>
-      <c r="AF50" s="59"/>
-      <c r="AG50" s="60"/>
-      <c r="AH50" s="53"/>
-      <c r="AI50" s="54"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="41"/>
+      <c r="AB50" s="40"/>
+      <c r="AC50" s="41"/>
+      <c r="AD50" s="40"/>
+      <c r="AE50" s="41"/>
+      <c r="AF50" s="40"/>
+      <c r="AG50" s="41"/>
+      <c r="AH50" s="34"/>
+      <c r="AI50" s="35"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
@@ -2868,16 +2868,16 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="55"/>
-      <c r="AA51" s="56"/>
-      <c r="AB51" s="55"/>
-      <c r="AC51" s="56"/>
-      <c r="AD51" s="55"/>
-      <c r="AE51" s="56"/>
-      <c r="AF51" s="55"/>
-      <c r="AG51" s="56"/>
-      <c r="AH51" s="55"/>
-      <c r="AI51" s="56"/>
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="37"/>
+      <c r="AB51" s="36"/>
+      <c r="AC51" s="37"/>
+      <c r="AD51" s="36"/>
+      <c r="AE51" s="37"/>
+      <c r="AF51" s="36"/>
+      <c r="AG51" s="37"/>
+      <c r="AH51" s="36"/>
+      <c r="AI51" s="37"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -7275,16 +7275,67 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="AA16:AH16"/>
-    <mergeCell ref="AA17:AH17"/>
-    <mergeCell ref="AA18:AH18"/>
-    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:AI2"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AA25:AH25"/>
+    <mergeCell ref="AA26:AH26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="AA36:AH36"/>
+    <mergeCell ref="AA37:AH37"/>
+    <mergeCell ref="AA38:AH38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AA40:AH40"/>
+    <mergeCell ref="AA41:AH41"/>
+    <mergeCell ref="AA46:AH46"/>
+    <mergeCell ref="AA47:AH47"/>
+    <mergeCell ref="Z48:AI48"/>
+    <mergeCell ref="AA32:AH32"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="AA34:AH34"/>
+    <mergeCell ref="AA35:AH35"/>
+    <mergeCell ref="AA43:AH43"/>
     <mergeCell ref="AH49:AI50"/>
     <mergeCell ref="Z51:AA51"/>
     <mergeCell ref="AB51:AC51"/>
@@ -7301,67 +7352,16 @@
     <mergeCell ref="AF49:AG50"/>
     <mergeCell ref="AA44:AH44"/>
     <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA46:AH46"/>
-    <mergeCell ref="AA47:AH47"/>
-    <mergeCell ref="Z48:AI48"/>
-    <mergeCell ref="AA32:AH32"/>
-    <mergeCell ref="AA33:AH33"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="AA35:AH35"/>
-    <mergeCell ref="AA43:AH43"/>
-    <mergeCell ref="AA9:AH9"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA25:AH25"/>
-    <mergeCell ref="AA26:AH26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="AA36:AH36"/>
-    <mergeCell ref="AA37:AH37"/>
-    <mergeCell ref="AA38:AH38"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="AA40:AH40"/>
-    <mergeCell ref="AA41:AH41"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="AA8:AH8"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:AI2"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="AA16:AH16"/>
+    <mergeCell ref="AA17:AH17"/>
+    <mergeCell ref="AA18:AH18"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AA21:AH21"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="9.8425196850393706E-2" right="9.8425196850393706E-2" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0" footer="0"/>

--- a/templates/electronicJournal2.xlsx
+++ b/templates/electronicJournal2.xlsx
@@ -374,6 +374,47 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -383,13 +424,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -426,56 +476,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +695,7 @@
   <dimension ref="A1:AN996"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -718,47 +718,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
       <c r="W1" s="4"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="56" t="s">
+      <c r="Z1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="58"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="32"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -766,41 +766,41 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
       <c r="W2" s="4"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="61"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -808,47 +808,47 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="62" t="s">
+      <c r="Z3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="32" t="s">
+      <c r="AA3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="64" t="s">
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="39" t="s">
         <v>5</v>
       </c>
       <c r="AJ3" s="1"/>
@@ -858,43 +858,43 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="4" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="63"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="37"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -902,40 +902,40 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="29"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="48"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -970,14 +970,14 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="29"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="48"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -1012,14 +1012,14 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="29"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="48"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -1054,14 +1054,14 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="29"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="48"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -1096,14 +1096,14 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="29"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="48"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -1138,14 +1138,14 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="29"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="48"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -1180,14 +1180,14 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="29"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="48"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -1222,14 +1222,14 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="29"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="48"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -1264,14 +1264,14 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="29"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="48"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -1306,14 +1306,14 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="29"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="48"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -1348,14 +1348,14 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="29"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="48"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -1390,14 +1390,14 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="29"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="48"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -1432,14 +1432,14 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="29"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="48"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -1474,14 +1474,14 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="29"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="48"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -1516,14 +1516,14 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="29"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="48"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -1558,14 +1558,14 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="29"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="48"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -1600,14 +1600,14 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="29"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="48"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -1642,14 +1642,14 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="29"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="48"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -1684,14 +1684,14 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="29"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="48"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -1726,14 +1726,14 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="29"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="48"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -1768,14 +1768,14 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="29"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="48"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -1810,14 +1810,14 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="29"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="48"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -1851,14 +1851,14 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="29"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="48"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -1893,14 +1893,14 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="29"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="48"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -1935,14 +1935,14 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="29"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="48"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -1973,18 +1973,18 @@
       <c r="T30" s="24"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="29"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="47"/>
+      <c r="AH30" s="48"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -2015,18 +2015,18 @@
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
       <c r="V31" s="26"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="29"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="48"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -2061,14 +2061,14 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="29"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="47"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="47"/>
+      <c r="AH32" s="48"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -2103,14 +2103,14 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="29"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="47"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="47"/>
+      <c r="AH33" s="48"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -2145,14 +2145,14 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="29"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="47"/>
+      <c r="AC34" s="47"/>
+      <c r="AD34" s="47"/>
+      <c r="AE34" s="47"/>
+      <c r="AF34" s="47"/>
+      <c r="AG34" s="47"/>
+      <c r="AH34" s="48"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -2187,14 +2187,14 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="29"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="47"/>
+      <c r="AC35" s="47"/>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="47"/>
+      <c r="AF35" s="47"/>
+      <c r="AG35" s="47"/>
+      <c r="AH35" s="48"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -2229,14 +2229,14 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="29"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="47"/>
+      <c r="AH36" s="48"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -2271,14 +2271,14 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="29"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="48"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -2313,14 +2313,14 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="28"/>
-      <c r="AG38" s="28"/>
-      <c r="AH38" s="29"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="48"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -2355,14 +2355,14 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="28"/>
-      <c r="AE39" s="28"/>
-      <c r="AF39" s="28"/>
-      <c r="AG39" s="28"/>
-      <c r="AH39" s="29"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="48"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -2397,14 +2397,14 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="28"/>
-      <c r="AG40" s="28"/>
-      <c r="AH40" s="29"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="47"/>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="47"/>
+      <c r="AE40" s="47"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="48"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -2439,14 +2439,14 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="28"/>
-      <c r="AG41" s="28"/>
-      <c r="AH41" s="29"/>
+      <c r="AA41" s="46"/>
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="47"/>
+      <c r="AD41" s="47"/>
+      <c r="AE41" s="47"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="47"/>
+      <c r="AH41" s="48"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -2481,14 +2481,14 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="29"/>
+      <c r="AA42" s="46"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="47"/>
+      <c r="AE42" s="47"/>
+      <c r="AF42" s="47"/>
+      <c r="AG42" s="47"/>
+      <c r="AH42" s="48"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -2523,14 +2523,14 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="28"/>
-      <c r="AG43" s="28"/>
-      <c r="AH43" s="29"/>
+      <c r="AA43" s="46"/>
+      <c r="AB43" s="47"/>
+      <c r="AC43" s="47"/>
+      <c r="AD43" s="47"/>
+      <c r="AE43" s="47"/>
+      <c r="AF43" s="47"/>
+      <c r="AG43" s="47"/>
+      <c r="AH43" s="48"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -2565,14 +2565,14 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28"/>
-      <c r="AH44" s="29"/>
+      <c r="AA44" s="46"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="47"/>
+      <c r="AE44" s="47"/>
+      <c r="AF44" s="47"/>
+      <c r="AG44" s="47"/>
+      <c r="AH44" s="48"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -2607,14 +2607,14 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="10"/>
-      <c r="AA45" s="43"/>
-      <c r="AB45" s="44"/>
-      <c r="AC45" s="44"/>
-      <c r="AD45" s="44"/>
-      <c r="AE45" s="44"/>
-      <c r="AF45" s="44"/>
-      <c r="AG45" s="44"/>
-      <c r="AH45" s="45"/>
+      <c r="AA45" s="65"/>
+      <c r="AB45" s="66"/>
+      <c r="AC45" s="66"/>
+      <c r="AD45" s="66"/>
+      <c r="AE45" s="66"/>
+      <c r="AF45" s="66"/>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="67"/>
       <c r="AI45" s="11"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -2649,14 +2649,14 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="13"/>
-      <c r="AA46" s="46"/>
-      <c r="AB46" s="47"/>
-      <c r="AC46" s="47"/>
-      <c r="AD46" s="47"/>
-      <c r="AE46" s="47"/>
-      <c r="AF46" s="47"/>
-      <c r="AG46" s="47"/>
-      <c r="AH46" s="47"/>
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="52"/>
+      <c r="AD46" s="52"/>
+      <c r="AE46" s="52"/>
+      <c r="AF46" s="52"/>
+      <c r="AG46" s="52"/>
+      <c r="AH46" s="52"/>
       <c r="AI46" s="14"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -2691,14 +2691,14 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="12"/>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="45"/>
+      <c r="AC47" s="45"/>
+      <c r="AD47" s="45"/>
+      <c r="AE47" s="45"/>
+      <c r="AF47" s="45"/>
+      <c r="AG47" s="45"/>
+      <c r="AH47" s="45"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -2732,16 +2732,16 @@
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="48"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AE48" s="49"/>
-      <c r="AF48" s="49"/>
-      <c r="AG48" s="49"/>
-      <c r="AH48" s="49"/>
-      <c r="AI48" s="49"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="54"/>
+      <c r="AB48" s="54"/>
+      <c r="AC48" s="54"/>
+      <c r="AD48" s="54"/>
+      <c r="AE48" s="54"/>
+      <c r="AF48" s="54"/>
+      <c r="AG48" s="54"/>
+      <c r="AH48" s="54"/>
+      <c r="AI48" s="54"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
@@ -2774,26 +2774,26 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="38" t="s">
+      <c r="Z49" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="42" t="s">
+      <c r="AA49" s="61"/>
+      <c r="AB49" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="AC49" s="39"/>
-      <c r="AD49" s="38" t="s">
+      <c r="AC49" s="61"/>
+      <c r="AD49" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AE49" s="39"/>
-      <c r="AF49" s="38" t="s">
+      <c r="AE49" s="61"/>
+      <c r="AF49" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AG49" s="39"/>
-      <c r="AH49" s="32" t="s">
+      <c r="AG49" s="61"/>
+      <c r="AH49" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AI49" s="33"/>
+      <c r="AI49" s="55"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -2826,16 +2826,16 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="40"/>
-      <c r="AA50" s="41"/>
-      <c r="AB50" s="40"/>
-      <c r="AC50" s="41"/>
-      <c r="AD50" s="40"/>
-      <c r="AE50" s="41"/>
-      <c r="AF50" s="40"/>
-      <c r="AG50" s="41"/>
-      <c r="AH50" s="34"/>
-      <c r="AI50" s="35"/>
+      <c r="Z50" s="62"/>
+      <c r="AA50" s="63"/>
+      <c r="AB50" s="62"/>
+      <c r="AC50" s="63"/>
+      <c r="AD50" s="62"/>
+      <c r="AE50" s="63"/>
+      <c r="AF50" s="62"/>
+      <c r="AG50" s="63"/>
+      <c r="AH50" s="56"/>
+      <c r="AI50" s="57"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
@@ -2868,16 +2868,16 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="36"/>
-      <c r="AA51" s="37"/>
-      <c r="AB51" s="36"/>
-      <c r="AC51" s="37"/>
-      <c r="AD51" s="36"/>
-      <c r="AE51" s="37"/>
-      <c r="AF51" s="36"/>
-      <c r="AG51" s="37"/>
-      <c r="AH51" s="36"/>
-      <c r="AI51" s="37"/>
+      <c r="Z51" s="58"/>
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="58"/>
+      <c r="AC51" s="59"/>
+      <c r="AD51" s="58"/>
+      <c r="AE51" s="59"/>
+      <c r="AF51" s="58"/>
+      <c r="AG51" s="59"/>
+      <c r="AH51" s="58"/>
+      <c r="AI51" s="59"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -7275,6 +7275,77 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AA21:AH21"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="AA16:AH16"/>
+    <mergeCell ref="AA17:AH17"/>
+    <mergeCell ref="AA18:AH18"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AH49:AI50"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AA28:AH28"/>
+    <mergeCell ref="AA29:AH29"/>
+    <mergeCell ref="AA30:AH30"/>
+    <mergeCell ref="AA31:AH31"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="Z49:AA50"/>
+    <mergeCell ref="AB49:AC50"/>
+    <mergeCell ref="AD49:AE50"/>
+    <mergeCell ref="AF49:AG50"/>
+    <mergeCell ref="AA44:AH44"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="AA46:AH46"/>
+    <mergeCell ref="AA47:AH47"/>
+    <mergeCell ref="Z48:AI48"/>
+    <mergeCell ref="AA32:AH32"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="AA34:AH34"/>
+    <mergeCell ref="AA35:AH35"/>
+    <mergeCell ref="AA43:AH43"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AA25:AH25"/>
+    <mergeCell ref="AA26:AH26"/>
+    <mergeCell ref="AA27:AH27"/>
+    <mergeCell ref="AA36:AH36"/>
+    <mergeCell ref="AA37:AH37"/>
+    <mergeCell ref="AA38:AH38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AA40:AH40"/>
+    <mergeCell ref="AA41:AH41"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="Z1:AI2"/>
     <mergeCell ref="Z3:Z4"/>
@@ -7291,77 +7362,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="AA8:AH8"/>
-    <mergeCell ref="AA9:AH9"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA25:AH25"/>
-    <mergeCell ref="AA26:AH26"/>
-    <mergeCell ref="AA27:AH27"/>
-    <mergeCell ref="AA36:AH36"/>
-    <mergeCell ref="AA37:AH37"/>
-    <mergeCell ref="AA38:AH38"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="AA40:AH40"/>
-    <mergeCell ref="AA41:AH41"/>
-    <mergeCell ref="AA46:AH46"/>
-    <mergeCell ref="AA47:AH47"/>
-    <mergeCell ref="Z48:AI48"/>
-    <mergeCell ref="AA32:AH32"/>
-    <mergeCell ref="AA33:AH33"/>
-    <mergeCell ref="AA34:AH34"/>
-    <mergeCell ref="AA35:AH35"/>
-    <mergeCell ref="AA43:AH43"/>
-    <mergeCell ref="AH49:AI50"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AA28:AH28"/>
-    <mergeCell ref="AA29:AH29"/>
-    <mergeCell ref="AA30:AH30"/>
-    <mergeCell ref="AA31:AH31"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="Z49:AA50"/>
-    <mergeCell ref="AB49:AC50"/>
-    <mergeCell ref="AD49:AE50"/>
-    <mergeCell ref="AF49:AG50"/>
-    <mergeCell ref="AA44:AH44"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="AA16:AH16"/>
-    <mergeCell ref="AA17:AH17"/>
-    <mergeCell ref="AA18:AH18"/>
-    <mergeCell ref="AA19:AH19"/>
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="9.8425196850393706E-2" right="9.8425196850393706E-2" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0" footer="0"/>

--- a/templates/electronicJournal2.xlsx
+++ b/templates/electronicJournal2.xlsx
@@ -449,10 +449,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -477,6 +473,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -695,7 +695,7 @@
   <dimension ref="A1:AN996"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="Z51" sqref="Z51:AI51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2607,14 +2607,14 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="10"/>
-      <c r="AA45" s="65"/>
-      <c r="AB45" s="66"/>
-      <c r="AC45" s="66"/>
-      <c r="AD45" s="66"/>
-      <c r="AE45" s="66"/>
-      <c r="AF45" s="66"/>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="67"/>
+      <c r="AA45" s="63"/>
+      <c r="AB45" s="64"/>
+      <c r="AC45" s="64"/>
+      <c r="AD45" s="64"/>
+      <c r="AE45" s="64"/>
+      <c r="AF45" s="64"/>
+      <c r="AG45" s="64"/>
+      <c r="AH45" s="65"/>
       <c r="AI45" s="11"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -2774,22 +2774,22 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="60" t="s">
+      <c r="Z49" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AA49" s="61"/>
-      <c r="AB49" s="64" t="s">
+      <c r="AA49" s="59"/>
+      <c r="AB49" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AC49" s="61"/>
-      <c r="AD49" s="60" t="s">
+      <c r="AC49" s="59"/>
+      <c r="AD49" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="AE49" s="61"/>
-      <c r="AF49" s="60" t="s">
+      <c r="AE49" s="59"/>
+      <c r="AF49" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="AG49" s="61"/>
+      <c r="AG49" s="59"/>
       <c r="AH49" s="38" t="s">
         <v>8</v>
       </c>
@@ -2826,14 +2826,14 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="62"/>
-      <c r="AA50" s="63"/>
-      <c r="AB50" s="62"/>
-      <c r="AC50" s="63"/>
-      <c r="AD50" s="62"/>
-      <c r="AE50" s="63"/>
-      <c r="AF50" s="62"/>
-      <c r="AG50" s="63"/>
+      <c r="Z50" s="60"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="60"/>
+      <c r="AC50" s="61"/>
+      <c r="AD50" s="60"/>
+      <c r="AE50" s="61"/>
+      <c r="AF50" s="60"/>
+      <c r="AG50" s="61"/>
       <c r="AH50" s="56"/>
       <c r="AI50" s="57"/>
       <c r="AJ50" s="1"/>
@@ -2868,16 +2868,16 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="58"/>
-      <c r="AA51" s="59"/>
-      <c r="AB51" s="58"/>
-      <c r="AC51" s="59"/>
-      <c r="AD51" s="58"/>
-      <c r="AE51" s="59"/>
-      <c r="AF51" s="58"/>
-      <c r="AG51" s="59"/>
-      <c r="AH51" s="58"/>
-      <c r="AI51" s="59"/>
+      <c r="Z51" s="66"/>
+      <c r="AA51" s="67"/>
+      <c r="AB51" s="66"/>
+      <c r="AC51" s="67"/>
+      <c r="AD51" s="66"/>
+      <c r="AE51" s="67"/>
+      <c r="AF51" s="66"/>
+      <c r="AG51" s="67"/>
+      <c r="AH51" s="66"/>
+      <c r="AI51" s="67"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
